--- a/testing/hackernews/Hacker_News.xlsx
+++ b/testing/hackernews/Hacker_News.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3459,6 +3459,1910 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Rye the right crop for generating bioenergy and capturing nitrates and carbon</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://phys.org/news/2023-08-rye-crop-nabbing-nitrates-capturing.html</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://phys.org/news/2023-08-rye-crop-nabbing-nitrates-capturing.html&gt;https://phys.org/news/2023-08-rye-crop-nabbing-nitrates-capturing.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140258&gt;https://news.ycombinator.com/item?id=37140258&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Show HN: AI Coding Playground</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://aicodeplayground.com/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://aicodeplayground.com/&gt;https://aicodeplayground.com/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140257&gt;https://news.ycombinator.com/item?id=37140257&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Germany Cans Its A340 ‘Air Force One’ Jets After Two Failures in 24 Hours</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.thedrive.com/the-war-zone/germany-cans-its-a340-air-force-one-jets-after-two-failures-in-24-hours</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.thedrive.com/the-war-zone/germany-cans-its-a340-air-force-one-jets-after-two-failures-in-24-hours&gt;https://www.thedrive.com/the-war-zone/germany-cans-its-a340-air-force-one-jets-after-two-failures-in-24-hours&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140217&gt;https://news.ycombinator.com/item?id=37140217&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>AI comes for YouTube’s thumbnail industry</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://restofworld.org/2023/youtube-thumbnail-ai/</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://restofworld.org/2023/youtube-thumbnail-ai/&gt;https://restofworld.org/2023/youtube-thumbnail-ai/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140199&gt;https://news.ycombinator.com/item?id=37140199&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Modern CSV version 2 is now available</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.moderncsv.com/modern-csv-2-is-now-available/</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.moderncsv.com/modern-csv-2-is-now-available/&gt;https://www.moderncsv.com/modern-csv-2-is-now-available/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140159&gt;https://news.ycombinator.com/item?id=37140159&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Faraday Future Finally Delivers FF 91 Electric SUV Five Years Late</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.caranddriver.com/news/a44819533/faraday-future-ff-91-delivery/</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.caranddriver.com/news/a44819533/faraday-future-ff-91-delivery/&gt;https://www.caranddriver.com/news/a44819533/faraday-future-ff-91-delivery/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140147&gt;https://news.ycombinator.com/item?id=37140147&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Ask HN: Worst outcomes with self-driving being hacked?</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37140118</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;So, what if/how/etc scenarios are going to be exploited in self driving cars..&lt;p&gt;An executive/politician gets into a car and it gets hacked to either kidnap or kill them...\&lt;p&gt;How can you be sure a self driving bot hasnt been IED'd&lt;p&gt;etc...&lt;p&gt;Not fear mongering, but its as just as important as crypto comms...&lt;p&gt;But what will happen when the first assassination happens via a hacked AI car&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140118&gt;https://news.ycombinator.com/item?id=37140118&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 3&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>I made a website that color-codes the world by language</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://languageworldmap.com/?hn</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://languageworldmap.com/?hn&gt;https://languageworldmap.com/?hn&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140095&gt;https://news.ycombinator.com/item?id=37140095&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>US VCS Need to Lobby for High Skilled Immigration Reform (and Sacrifice Prefere</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://hunterwalk.com/2023/08/15/us-vcs-need-to-lobby-for-high-skilled-immigration-reform-and-sacrifice-preferential-tax-treatment-if-needed/</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://hunterwalk.com/2023/08/15/us-vcs-need-to-lobby-for-high-skilled-immigration-reform-and-sacrifice-preferential-tax-treatment-if-needed/&gt;https://hunterwalk.com/2023/08/15/us-vcs-need-to-lobby-for-high-skilled-immigration-reform-and-sacrifice-preferential-tax-treatment-if-needed/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140083&gt;https://news.ycombinator.com/item?id=37140083&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Federal Election Commission – Artificial Intelligence and Campaign Ads</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.caidp.org/public-voice/fec-us-2023/</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.caidp.org/public-voice/fec-us-2023/&gt;https://www.caidp.org/public-voice/fec-us-2023/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140076&gt;https://news.ycombinator.com/item?id=37140076&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>XFS maintainer, Darrik Wong, steps down</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://lore.kernel.org/linux-xfs/169091989589.112530.11294854598557805230.stgit@frogsfrogsfrogs/T/#m6c9b740f7841a77e077a9fe9f96bb8818f2403bd</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://lore.kernel.org/linux-xfs/169091989589.112530.11294854598557805230.stgit@frogsfrogsfrogs/T/#m6c9b740f7841a77e077a9fe9f96bb8818f2403bd&gt;https://lore.kernel.org/linux-xfs/169091989589.112530.11294854598557805230.stgit@frogsfrogsfrogs/T/#m6c9b740f7841a77e077a9fe9f96bb8818f2403bd&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140049&gt;https://news.ycombinator.com/item?id=37140049&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 4&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>On demand vs. Reserved instances for LLM fine-tuning</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37140042</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hi everyone,&lt;p&gt;I am looking at different options to get access to GPUs to train an LLM on an enterprise use case for a customer. They are on a specific Cloud provider with associated credits, so I have no ability to go outside, like Runpod.&lt;p&gt;We are exchanging on whether we should go for On-demand or Reserved instances. This client is a Fortune 500, so they could reserve it but it might not be the best choice.&lt;p&gt;It seems to me that with LoRA / QLoRA, and so on, we might be able to fine-tune a Llama 2 with one or two GPUs on-demand, but I am unsure yet.&lt;p&gt;So our main evaluation criteria are:&lt;p&gt;- Price&lt;p&gt;- Availability of GPUs, aka we don't want to waste too much time to get started&lt;p&gt;In your experience, have you had difficulties to get access to GPUs at a good price? How many of you had to go with reserved instances, and if so what made you choose this option?&lt;p&gt;I would love to have your feedback!&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140042&gt;https://news.ycombinator.com/item?id=37140042&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>New – Amazon EC2 M7a General Purpose Instances Powered by 4th Gen AMD EPYC</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://aws.amazon.com/blogs/aws/new-amazon-ec2-m7a-general-purpose-instances-powered-by-4th-gen-amd-epyc-processors/</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://aws.amazon.com/blogs/aws/new-amazon-ec2-m7a-general-purpose-instances-powered-by-4th-gen-amd-epyc-processors/&gt;https://aws.amazon.com/blogs/aws/new-amazon-ec2-m7a-general-purpose-instances-powered-by-4th-gen-amd-epyc-processors/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140035&gt;https://news.ycombinator.com/item?id=37140035&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Goat</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://github.com/stacksc/goat</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/stacksc/goat&gt;https://github.com/stacksc/goat&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140017&gt;https://news.ycombinator.com/item?id=37140017&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>How Is LLaMa.cpp Possible?</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://finbarr.ca/how-is-llama-cpp-possible/</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://finbarr.ca/how-is-llama-cpp-possible/&gt;https://finbarr.ca/how-is-llama-cpp-possible/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140013&gt;https://news.ycombinator.com/item?id=37140013&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 35&lt;/p&gt;
+&lt;p&gt;# Comments: 2&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>You're a cyclist who was just struck by a car driver. Why it was your fault</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.mcsweeneys.net/articles/youre-a-cyclist-who-was-just-struck-by-a-car-driver-heres-why-it-was-your-fault</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.mcsweeneys.net/articles/youre-a-cyclist-who-was-just-struck-by-a-car-driver-heres-why-it-was-your-fault&gt;https://www.mcsweeneys.net/articles/youre-a-cyclist-who-was-just-struck-by-a-car-driver-heres-why-it-was-your-fault&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37139980&gt;https://news.ycombinator.com/item?id=37139980&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 17&lt;/p&gt;
+&lt;p&gt;# Comments: 4&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Peter Pan: Cynical Celebration of a Serial Killer or Cautionary Tale?</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://historyaschoice.com/2020/07/08/j-m-barries-peter-pan-cynical-celebration-of-a-serial-killer-or-cautionary-tale/</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://historyaschoice.com/2020/07/08/j-m-barries-peter-pan-cynical-celebration-of-a-serial-killer-or-cautionary-tale/&gt;https://historyaschoice.com/2020/07/08/j-m-barries-peter-pan-cynical-celebration-of-a-serial-killer-or-cautionary-tale/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37139972&gt;https://news.ycombinator.com/item?id=37139972&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>My Favourite macOS Terminal Commands and Tools</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.chriswales.uk/blog/my-favourite-macos-terminal-commands-and-tools/</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.chriswales.uk/blog/my-favourite-macos-terminal-commands-and-tools/&gt;https://www.chriswales.uk/blog/my-favourite-macos-terminal-commands-and-tools/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37139913&gt;https://news.ycombinator.com/item?id=37139913&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Characterizing and Evaluating In-the-Wild Jailbreak Prompts on LLMs</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2308.03825</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://arxiv.org/abs/2308.03825&gt;https://arxiv.org/abs/2308.03825&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37139871&gt;https://news.ycombinator.com/item?id=37139871&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CFPB to crack down on data brokers, Chopra says at White House event</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.cnbc.com/2023/08/15/cfpb-to-crack-down-on-data-brokers-chopra-says-at-white-house-event-.html</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnbc.com/2023/08/15/cfpb-to-crack-down-on-data-brokers-chopra-says-at-white-house-event-.html&gt;https://www.cnbc.com/2023/08/15/cfpb-to-crack-down-on-data-brokers-chopra-says-at-white-house-event-.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37139860&gt;https://news.ycombinator.com/item?id=37139860&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Ephemeral image link website now allows adding a note</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://sendapic.xyz/</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://sendapic.xyz/&gt;https://sendapic.xyz/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140336&gt;https://news.ycombinator.com/item?id=37140336&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>How to Place Mozilla Firefox Browser Under Lockdown</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.codeproject.com/Tips/5356799/How-to-Place-Mozilla-Firefox-Browser-under-Lockdow</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.codeproject.com/Tips/5356799/How-to-Place-Mozilla-Firefox-Browser-under-Lockdow&gt;https://www.codeproject.com/Tips/5356799/How-to-Place-Mozilla-Firefox-Browser-under-Lockdow&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140324&gt;https://news.ycombinator.com/item?id=37140324&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Bank of Ireland IT blunder allows customers who have no money get access to cash</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.independent.ie/business/personal-finance/bank-of-ireland-it-blunder-allows-customers-who-have-no-money-get-access-to-cash-at-atms/a510070628.html</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.independent.ie/business/personal-finance/bank-of-ireland-it-blunder-allows-customers-who-have-no-money-get-access-to-cash-at-atms/a510070628.html&gt;https://www.independent.ie/business/personal-finance/bank-of-ireland-it-blunder-allows-customers-who-have-no-money-get-access-to-cash-at-atms/a510070628.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140320&gt;https://news.ycombinator.com/item?id=37140320&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>We Call on FOSS Contributors to “Exit Zoom”</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://sfconservancy.org/news/2023/aug/15/exit-zoom/</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://sfconservancy.org/news/2023/aug/15/exit-zoom/&gt;https://sfconservancy.org/news/2023/aug/15/exit-zoom/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140291&gt;https://news.ycombinator.com/item?id=37140291&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Environmental Users Migrating Away from Elon Musk’s X Platform</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.pomona.edu/news/2023/08/15-environmental-users-migrating-away-elon-musks-x-platform-researchers-find</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.pomona.edu/news/2023/08/15-environmental-users-migrating-away-elon-musks-x-platform-researchers-find&gt;https://www.pomona.edu/news/2023/08/15-environmental-users-migrating-away-elon-musks-x-platform-researchers-find&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140284&gt;https://news.ycombinator.com/item?id=37140284&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Germany Cans Its A340 ‘Air Force One’ Jets After Two Failures in 24 Hours</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.thedrive.com/the-war-zone/germany-cans-its-a340-air-force-one-jets-after-two-failures-in-24-hours</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.thedrive.com/the-war-zone/germany-cans-its-a340-air-force-one-jets-after-two-failures-in-24-hours&gt;https://www.thedrive.com/the-war-zone/germany-cans-its-a340-air-force-one-jets-after-two-failures-in-24-hours&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140217&gt;https://news.ycombinator.com/item?id=37140217&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Modern CSV version 2 is now available</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.moderncsv.com/modern-csv-2-is-now-available/</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.moderncsv.com/modern-csv-2-is-now-available/&gt;https://www.moderncsv.com/modern-csv-2-is-now-available/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140159&gt;https://news.ycombinator.com/item?id=37140159&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Ask HN: Worst outcomes with self-driving being hacked?</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37140118</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;So, what if/how/etc scenarios are going to be exploited in self driving cars..&lt;p&gt;An executive/politician gets into a car and it gets hacked to either kidnap or kill them...\&lt;p&gt;How can you be sure a self driving bot hasnt been IED'd&lt;p&gt;etc...&lt;p&gt;Not fear mongering, but its as just as important as crypto comms...&lt;p&gt;But what will happen when the first assassination happens via a hacked AI car&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140118&gt;https://news.ycombinator.com/item?id=37140118&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 5&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>XFS maintainer, Darrik Wong, steps down</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://lore.kernel.org/linux-xfs/169091989589.112530.11294854598557805230.stgit@frogsfrogsfrogs/T/#m6c9b740f7841a77e077a9fe9f96bb8818f2403bd</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://lore.kernel.org/linux-xfs/169091989589.112530.11294854598557805230.stgit@frogsfrogsfrogs/T/#m6c9b740f7841a77e077a9fe9f96bb8818f2403bd&gt;https://lore.kernel.org/linux-xfs/169091989589.112530.11294854598557805230.stgit@frogsfrogsfrogs/T/#m6c9b740f7841a77e077a9fe9f96bb8818f2403bd&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140049&gt;https://news.ycombinator.com/item?id=37140049&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 8&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>How Is LLaMa.cpp Possible?</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://finbarr.ca/how-is-llama-cpp-possible/</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://finbarr.ca/how-is-llama-cpp-possible/&gt;https://finbarr.ca/how-is-llama-cpp-possible/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140013&gt;https://news.ycombinator.com/item?id=37140013&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 57&lt;/p&gt;
+&lt;p&gt;# Comments: 5&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>The Costs of Reshoring</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.lynalden.com/reshoring/</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.lynalden.com/reshoring/&gt;https://www.lynalden.com/reshoring/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140476&gt;https://news.ycombinator.com/item?id=37140476&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Xbox introduces new strike system to curtail bad behavior</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.theverge.com/2023/8/15/23832505/xbox-strike-enforcement-tool-community-standards</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theverge.com/2023/8/15/23832505/xbox-strike-enforcement-tool-community-standards&gt;https://www.theverge.com/2023/8/15/23832505/xbox-strike-enforcement-tool-community-standards&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140447&gt;https://news.ycombinator.com/item?id=37140447&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>An LA platform, made by Garrett's Mom</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.curatedla.xyz/p/best-daily-los-angeles-newsletter-tuesday-august-15th-2023-curatedla</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.curatedla.xyz/p/best-daily-los-angeles-newsletter-tuesday-august-15th-2023-curatedla&gt;https://www.curatedla.xyz/p/best-daily-los-angeles-newsletter-tuesday-august-15th-2023-curatedla&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140414&gt;https://news.ycombinator.com/item?id=37140414&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>There is no justice, (Reality)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37140402</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;When will the laws on drugs change? When?
+We continue to label them as homeless. We persist.
+Spread the word, fight, say what is right, and support justice.&lt;p&gt;In the war in Ukraine, soldiers are tortured, and women are raped. You have no idea unless you've lived through war.
+Is all of this for justice? Really?&lt;p&gt;I believe in good and evil. My religion is Islam. I live in New Zealand, but I'm originally from Afghanistan.
+What is happening to Ukraine today happened to my parents.&lt;p&gt;Here in New Zealand, money is given to those who cannot help themselves: liquor shops, work and income support. There is no justice. You are weak. I am my biggest enemy. I challenge you.&lt;p&gt;Spread the word, fight, fight, say what is right.
+We do not care about taxes; we do not care about the color of the flag.
+We want to protect humans, and our role as humans is to safeguard the animal kingdom, for starters.
+I am hurt. When COVID came, we swiftly changed laws. Drugs destroy families, yet we do nothing.&lt;p&gt;Having a stable job doesn't automatically make you a better human.
+If you have a stable job, more is expected of you to do good.
+Be smart, or your time will come. Mark my words.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140402&gt;https://news.ycombinator.com/item?id=37140402&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Crypto Recovery Solution Go to Captain Webgenesis</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://captainwebgenesis.com/index.html</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://captainwebgenesis.com/index.html&gt;https://captainwebgenesis.com/index.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140395&gt;https://news.ycombinator.com/item?id=37140395&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>LinkedIn accounts hacked in widespread hijacking campaign</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.bleepingcomputer.com/news/security/linkedin-accounts-hacked-in-widespread-hijacking-campaign/</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.bleepingcomputer.com/news/security/linkedin-accounts-hacked-in-widespread-hijacking-campaign/&gt;https://www.bleepingcomputer.com/news/security/linkedin-accounts-hacked-in-widespread-hijacking-campaign/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140379&gt;https://news.ycombinator.com/item?id=37140379&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Bank of Ireland IT blunder allows customers who have no money get access to cash</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.independent.ie/business/personal-finance/bank-of-ireland-it-blunder-allows-customers-who-have-no-money-get-access-to-cash-at-atms/a510070628.html</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.independent.ie/business/personal-finance/bank-of-ireland-it-blunder-allows-customers-who-have-no-money-get-access-to-cash-at-atms/a510070628.html&gt;https://www.independent.ie/business/personal-finance/bank-of-ireland-it-blunder-allows-customers-who-have-no-money-get-access-to-cash-at-atms/a510070628.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140320&gt;https://news.ycombinator.com/item?id=37140320&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>We Call on FOSS Contributors to “Exit Zoom”</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://sfconservancy.org/news/2023/aug/15/exit-zoom/</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://sfconservancy.org/news/2023/aug/15/exit-zoom/&gt;https://sfconservancy.org/news/2023/aug/15/exit-zoom/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140291&gt;https://news.ycombinator.com/item?id=37140291&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 8&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>George Hotz vs. Eliezer Yudkowsky AI Safety Debate</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=6yQEA18C-XI</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.youtube.com/watch?v=6yQEA18C-XI&gt;https://www.youtube.com/watch?v=6yQEA18C-XI&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140287&gt;https://news.ycombinator.com/item?id=37140287&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 4&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Rye: the right crop for generating bioenergy and capturing nitrates and carbon</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://phys.org/news/2023-08-rye-crop-nabbing-nitrates-capturing.html</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://phys.org/news/2023-08-rye-crop-nabbing-nitrates-capturing.html&gt;https://phys.org/news/2023-08-rye-crop-nabbing-nitrates-capturing.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140258&gt;https://news.ycombinator.com/item?id=37140258&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Germany Cans Its A340 ‘Air Force One’ Jets After Two Failures in 24 Hours</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.thedrive.com/the-war-zone/germany-cans-its-a340-air-force-one-jets-after-two-failures-in-24-hours</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.thedrive.com/the-war-zone/germany-cans-its-a340-air-force-one-jets-after-two-failures-in-24-hours&gt;https://www.thedrive.com/the-war-zone/germany-cans-its-a340-air-force-one-jets-after-two-failures-in-24-hours&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140217&gt;https://news.ycombinator.com/item?id=37140217&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Modern CSV version 2 is now available</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.moderncsv.com/modern-csv-2-is-now-available/</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.moderncsv.com/modern-csv-2-is-now-available/&gt;https://www.moderncsv.com/modern-csv-2-is-now-available/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140159&gt;https://news.ycombinator.com/item?id=37140159&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 6&lt;/p&gt;
+&lt;p&gt;# Comments: 2&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Ask HN: Worst outcomes with self-driving being hacked?</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37140118</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;So, what if/how/etc scenarios are going to be exploited in self driving cars..&lt;p&gt;An executive/politician gets into a car and it gets hacked to either kidnap or kill them...\&lt;p&gt;How can you be sure a self driving bot hasnt been IED'd&lt;p&gt;etc...&lt;p&gt;Not fear mongering, but its as just as important as crypto comms...&lt;p&gt;But what will happen when the first assassination happens via a hacked AI car&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140118&gt;https://news.ycombinator.com/item?id=37140118&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 5&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>I made a website that color-codes the world by language</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://languageworldmap.com/?hn</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://languageworldmap.com/?hn&gt;https://languageworldmap.com/?hn&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140095&gt;https://news.ycombinator.com/item?id=37140095&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>It’s time to rethink our relationships with streaming services</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.theverge.com/23831904/streaming-wars-price-hikes-disney-plus-hbo-max-hulu</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theverge.com/23831904/streaming-wars-price-hikes-disney-plus-hbo-max-hulu&gt;https://www.theverge.com/23831904/streaming-wars-price-hikes-disney-plus-hbo-max-hulu&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140814&gt;https://news.ycombinator.com/item?id=37140814&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Google Deprecates Google Domains, Sells It to Squarespace</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://support.google.com/domains/answer/13689670?hl=en</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://support.google.com/domains/answer/13689670?hl=en&gt;https://support.google.com/domains/answer/13689670?hl=en&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140806&gt;https://news.ycombinator.com/item?id=37140806&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Explore baseball player career stats with vector search</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://neuml-baseball.hf.space</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://neuml-baseball.hf.space&gt;https://neuml-baseball.hf.space&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140779&gt;https://news.ycombinator.com/item?id=37140779&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>American stocks are at their most expensive in decades</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.economist.com/finance-and-economics/2023/08/10/american-stocks-are-at-their-most-expensive-in-decades</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.economist.com/finance-and-economics/2023/08/10/american-stocks-are-at-their-most-expensive-in-decades&gt;https://www.economist.com/finance-and-economics/2023/08/10/american-stocks-are-at-their-most-expensive-in-decades&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140762&gt;https://news.ycombinator.com/item?id=37140762&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>A Google Sheet of links to directly support Maui families displaced by fires</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/spreadsheets/d/1lExatubPl6zvsDcy4qUd3Sv1PvvKrzMhUyOzaKuId0o/htmlview</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://docs.google.com/spreadsheets/d/1lExatubPl6zvsDcy4qUd3Sv1PvvKrzMhUyOzaKuId0o/htmlview&gt;https://docs.google.com/spreadsheets/d/1lExatubPl6zvsDcy4qUd3Sv1PvvKrzMhUyOzaKuId0o/htmlview&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140759&gt;https://news.ycombinator.com/item?id=37140759&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>After Ruble Crash, Russia Hikes Interest Rates at Emergency Meeting</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.bloomberg.com/news/articles/2023-08-15/russia-hikes-rates-at-emergency-meeting-called-after-ruble-crash</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.bloomberg.com/news/articles/2023-08-15/russia-hikes-rates-at-emergency-meeting-called-after-ruble-crash&gt;https://www.bloomberg.com/news/articles/2023-08-15/russia-hikes-rates-at-emergency-meeting-called-after-ruble-crash&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140683&gt;https://news.ycombinator.com/item?id=37140683&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Ted's Notes on Pawpaws</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://toyrus.ngrok.io/~ted/pawpaws/</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://toyrus.ngrok.io/~ted/pawpaws/&gt;https://toyrus.ngrok.io/~ted/pawpaws/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140681&gt;https://news.ycombinator.com/item?id=37140681&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Bayesian Flow Networks</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2308.07037</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://arxiv.org/abs/2308.07037&gt;https://arxiv.org/abs/2308.07037&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140658&gt;https://news.ycombinator.com/item?id=37140658&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Small Mathematica script to automatically generate labyrinths for 5yr old</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://twitter.com/j_bertolotti/status/1691422558980063232</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/j_bertolotti/status/1691422558980063232&gt;https://twitter.com/j_bertolotti/status/1691422558980063232&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140627&gt;https://news.ycombinator.com/item?id=37140627&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>The Next Major Crypto Narrative – Kerman Kohli</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://kermankohli.substack.com/p/the-next-major-crypto-narrative</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://kermankohli.substack.com/p/the-next-major-crypto-narrative&gt;https://kermankohli.substack.com/p/the-next-major-crypto-narrative&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140601&gt;https://news.ycombinator.com/item?id=37140601&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Pioneering study links cancer among military personnel to ‘forever chemicals’</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.stripes.com/branches/air_force/2023-08-15/testicular-cancer-forever-chemicals-11055207.html</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.stripes.com/branches/air_force/2023-08-15/testicular-cancer-forever-chemicals-11055207.html&gt;https://www.stripes.com/branches/air_force/2023-08-15/testicular-cancer-forever-chemicals-11055207.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140583&gt;https://news.ycombinator.com/item?id=37140583&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>AI has generated more images than photographers have taken</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://journal.everypixel.com/ai-image-statistics</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://journal.everypixel.com/ai-image-statistics&gt;https://journal.everypixel.com/ai-image-statistics&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140570&gt;https://news.ycombinator.com/item?id=37140570&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>US shovels cash into supercomputers hoping to stoke fusion future</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.theregister.com/2023/08/15/us_shovels_more_cash_into/</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theregister.com/2023/08/15/us_shovels_more_cash_into/&gt;https://www.theregister.com/2023/08/15/us_shovels_more_cash_into/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140563&gt;https://news.ycombinator.com/item?id=37140563&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Jeffrey Epstein Advised Sergey Brin with Tax Shelter</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.wsj.com/articles/jeffrey-epstein-advised-sergey-brin-with-tax-shelter-353cad20</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.wsj.com/articles/jeffrey-epstein-advised-sergey-brin-with-tax-shelter-353cad20&gt;https://www.wsj.com/articles/jeffrey-epstein-advised-sergey-brin-with-tax-shelter-353cad20&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140541&gt;https://news.ycombinator.com/item?id=37140541&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 2&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>YouTube to prohibit false claims cancer treatments under misinformation policy</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/08/15/tech/youtube-medical-misinformation-cancer-treatments/index.html</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnn.com/2023/08/15/tech/youtube-medical-misinformation-cancer-treatments/index.html&gt;https://www.cnn.com/2023/08/15/tech/youtube-medical-misinformation-cancer-treatments/index.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140532&gt;https://news.ycombinator.com/item?id=37140532&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>APIs Built for AI Agents</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.yourownstorybook.com/articles/2023-03-07</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.yourownstorybook.com/articles/2023-03-07&gt;https://www.yourownstorybook.com/articles/2023-03-07&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140526&gt;https://news.ycombinator.com/item?id=37140526&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Typhoon LAN hits western Japan, prompts evacuation warnings for 237,000 people</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/08/15/asia/typhoon-lan-japan-rainfall-evacuations-climate-intl/index.html</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnn.com/2023/08/15/asia/typhoon-lan-japan-rainfall-evacuations-climate-intl/index.html&gt;https://www.cnn.com/2023/08/15/asia/typhoon-lan-japan-rainfall-evacuations-climate-intl/index.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140525&gt;https://news.ycombinator.com/item?id=37140525&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Defending Planet Earth: Near-Earth Object Surveys, Hazard Mitigation Strategies [pdf]</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.boulder.swri.edu/~bottke/Reprints/National_Academies_NEO_Report_Defending_Planet_Earth.pdf</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.boulder.swri.edu/~bottke/Reprints/National_Academies_NEO_Report_Defending_Planet_Earth.pdf&gt;https://www.boulder.swri.edu/~bottke/Reprints/National_Academies_NEO_Report_Defending_Planet_Earth.pdf&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140523&gt;https://news.ycombinator.com/item?id=37140523&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Securing north/south and east/west traffic DevRev</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://medium.facilelogin.com/securing-north-south-and-east-west-traffic-devrev-2004b4397950?gi=08182216c784</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://medium.facilelogin.com/securing-north-south-and-east-west-traffic-devrev-2004b4397950?gi=08182216c784&gt;https://medium.facilelogin.com/securing-north-south-and-east-west-traffic-devrev-2004b4397950?gi=08182216c784&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37140516&gt;https://news.ycombinator.com/item?id=37140516&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/hackernews/Hacker_News.xlsx
+++ b/testing/hackernews/Hacker_News.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5363,6 +5363,1030 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Contributor License Agreements (CLAs) impede modest contributions</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://utcc.utoronto.ca/~cks/space/blog/tech/CLAsImpedeContributions</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://utcc.utoronto.ca/~cks/space/blog/tech/CLAsImpedeContributions&gt;https://utcc.utoronto.ca/~cks/space/blog/tech/CLAsImpedeContributions&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204304&gt;https://news.ycombinator.com/item?id=37204304&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Charities, Churches and Politics</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.irs.gov/newsroom/charities-churches-and-politics</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.irs.gov/newsroom/charities-churches-and-politics&gt;https://www.irs.gov/newsroom/charities-churches-and-politics&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204280&gt;https://news.ycombinator.com/item?id=37204280&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Twisted hunk of metal that used to be a Ferrari just sold for $1.9M</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/08/18/business/wrecked-ferrari-auction/index.html</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnn.com/2023/08/18/business/wrecked-ferrari-auction/index.html&gt;https://www.cnn.com/2023/08/18/business/wrecked-ferrari-auction/index.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204263&gt;https://news.ycombinator.com/item?id=37204263&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 4&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>OpenStax to launch open access organic chemistry textbook</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://news.rice.edu/news/2023/openstax-launch-open-access-organic-chemistry-textbook</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://news.rice.edu/news/2023/openstax-launch-open-access-organic-chemistry-textbook&gt;https://news.rice.edu/news/2023/openstax-launch-open-access-organic-chemistry-textbook&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204257&gt;https://news.ycombinator.com/item?id=37204257&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Hls.js – JavaScript Library for HTTP Live Streaming</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://github.com/video-dev/hls.js</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/video-dev/hls.js&gt;https://github.com/video-dev/hls.js&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204201&gt;https://news.ycombinator.com/item?id=37204201&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Sfmemory.org: Useful San Francisco and Bay Area History Resources</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://sfmemory.org/</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://sfmemory.org/&gt;https://sfmemory.org/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204193&gt;https://news.ycombinator.com/item?id=37204193&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>King of Wrath</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://z-lib.io/book/17141328</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://z-lib.io/book/17141328&gt;https://z-lib.io/book/17141328&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204186&gt;https://news.ycombinator.com/item?id=37204186&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Meta’s Threads App to Launch Web Version as Rivalry with X Enters New Stage</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.wsj.com/tech/metas-threads-app-to-launch-web-version-as-rivalry-with-x-enters-new-stage-706e8241</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.wsj.com/tech/metas-threads-app-to-launch-web-version-as-rivalry-with-x-enters-new-stage-706e8241&gt;https://www.wsj.com/tech/metas-threads-app-to-launch-web-version-as-rivalry-with-x-enters-new-stage-706e8241&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204140&gt;https://news.ycombinator.com/item?id=37204140&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 5&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Anaphoric Structure Emerges Between Neural Networks</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2308.07984</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://arxiv.org/abs/2308.07984&gt;https://arxiv.org/abs/2308.07984&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204114&gt;https://news.ycombinator.com/item?id=37204114&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Graphic Design in the Middle Ages</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.apollo-magazine.com/graphic-design-middle-ages-getty-center/</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.apollo-magazine.com/graphic-design-middle-ages-getty-center/&gt;https://www.apollo-magazine.com/graphic-design-middle-ages-getty-center/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204109&gt;https://news.ycombinator.com/item?id=37204109&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>The New Swiss Passport</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://abduzeedo.com/index.php/node/87632</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://abduzeedo.com/index.php/node/87632&gt;https://abduzeedo.com/index.php/node/87632&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204102&gt;https://news.ycombinator.com/item?id=37204102&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 9&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Ask HN: Favorite Educational Channels (For Kids)?</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37204090</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Ive noticed that the quality of individual creators on youtube is typically better (more entertaining &amp; higher quality) than a lot of the videos teachers share as supplementary material in my kids school.&lt;p&gt;For example, veritassium does some very easy to understand science and maths videos, periodic videos is a entertaining way to run through the periodic table and then a bunch of others for history depending on the period. Also mystery doug of course for younger kids.&lt;p&gt;Does anyone have any favorites they have stumbled across?&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204090&gt;https://news.ycombinator.com/item?id=37204090&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 2&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Ask HN: Possible to go/live underground to cool off?</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37204074</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I remember 40 years ago or so, underground or partially-underground houses were a thing - at least where I was occasionally in Pottsville (??), Pennsylvania.&lt;p&gt;I don't really remember why it was a thing, but I think I remember that it was because having a house underground-ish -- say, with just one face of the house exposed -- kept the house at earth temperature, which was generally a good thing -- no need to heat, nor cool. I think at the time maybe people were talking about heating bills??&lt;p&gt;If all that makes sense, could we do it again?&lt;p&gt;I always thought that it was awful to force humans underground -- like with subways -- but if it's a matter of survival...&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204074&gt;https://news.ycombinator.com/item?id=37204074&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 14&lt;/p&gt;
+&lt;p&gt;# Comments: 9&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Devkit for open source 32bit RISC-V MCU using GlobalFoundries 22nm technology</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://groupgets.com/campaigns/1040/show</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://groupgets.com/campaigns/1040/show&gt;https://groupgets.com/campaigns/1040/show&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204065&gt;https://news.ycombinator.com/item?id=37204065&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Following chronic fatigue mechanisms to the source: mitochondrial respiration</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://medicalxpress.com/news/2023-08-chronic-fatigue-mechanisms-source-wasf3.html</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://medicalxpress.com/news/2023-08-chronic-fatigue-mechanisms-source-wasf3.html&gt;https://medicalxpress.com/news/2023-08-chronic-fatigue-mechanisms-source-wasf3.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204060&gt;https://news.ycombinator.com/item?id=37204060&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Ask HN: Did you purchase a house recently?</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37204037</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;If so, how? Did you use a real estate agent? Mortgage rates are the highest in more Than 20 Years[1]. Did you put more than 20% down? Or did you pay cash for a foreclosure, auction, fixer-upper or wholesale home? Are there any sites / apps / services you would recommend for finding a home?&lt;p&gt;For context, California housing affordability is at its lowest level in nearly 16 years where a minimum annual income of $208,000 was needed to make monthly payments of $5,200[2]&lt;p&gt;[1] https://news.ycombinator.com/item?id=37171849&lt;p&gt;[2] https://www.car.org/en/aboutus/mediacenter/newsreleases/2023-News-Releases/2qtr2023hai&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204037&gt;https://news.ycombinator.com/item?id=37204037&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Big Tech’s Waste “Solutions” Are a Scam</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://newrepublic.com/article/173780/big-techs-waste-solutions-scam</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://newrepublic.com/article/173780/big-techs-waste-solutions-scam&gt;https://newrepublic.com/article/173780/big-techs-waste-solutions-scam&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204023&gt;https://news.ycombinator.com/item?id=37204023&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 9&lt;/p&gt;
+&lt;p&gt;# Comments: 5&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Ask HN: Transitioning from game development to cybersecurity. Tips or advice?</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37204018</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hello HN!&lt;p&gt;I was let go from my gaming job a couple of months ago, and unfortunately nothing has come up yet.&lt;p&gt;Thankfully, I was thinking of moving away from the industry anyway, so this is a great opportunity to do so. I've got some savings and have given myself a year to set-up a cybersecurity consultancy business. My main target will be start-ups, and small to medium tech companies, particularly gaming ones that don't yet have a cybersecurity division, but nonetheless need one, and don't see the point of hiring a full time cybersecurity professional.&lt;p&gt;The field has always interested me, and most of my games experience is doing server side development, alongside DevOps, and then straight game dev. But server work has been the bulk, so at least I'm familiar with the basics of hardening a system against interference, mostly by players trying to cheat, and every now and again against criminal interests who have targeted our games.&lt;p&gt;I've got around 15+ years of experience as a software engineer, around half of that in plain server development, and the other half specialized in server dev for games.&lt;p&gt;I've got a bachelor's degree in software engineering, and an MSc in Computer Games Technology. I'm taking a short postgrad course in Cybersecurity at my local university, but that takes 8 months. In the meantime, I'm studying to get Security+ certified so I can start bidding for jobs and have something more backing me apart from my CV.&lt;p&gt;My question is the following, what am I missing? What else can I get or do to give myself more credibility? Does anyone have any tips on getting clients?&lt;p&gt;I'm planning on running promotions for start-ups and going to several meet-ups to distribute coupons, some booklets with free information on personal cybersecurity, and just to network.&lt;p&gt;Cheers in advance for the advice!&lt;p&gt;p.s.: I'm also setting a sister company for game dev consulting, but I'm much more familiar with that and feel much more comfortable with it, but tips for that are also welcome.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204018&gt;https://news.ycombinator.com/item?id=37204018&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Everything about the Lockheed Martin streetwear is confusing</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://mashable.com/article/lockheed-martin-apparel-streetwear-south-korea</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://mashable.com/article/lockheed-martin-apparel-streetwear-south-korea&gt;https://mashable.com/article/lockheed-martin-apparel-streetwear-south-korea&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204016&gt;https://news.ycombinator.com/item?id=37204016&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 4&lt;/p&gt;
+&lt;p&gt;# Comments: 2&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Pre-RFC: WASM compilation of proc macros</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://internals.rust-lang.org/t/pre-rfc-sandboxed-deterministic-reproducible-efficient-wasm-compilation-of-proc-macros/19359</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://internals.rust-lang.org/t/pre-rfc-sandboxed-deterministic-reproducible-efficient-wasm-compilation-of-proc-macros/19359&gt;https://internals.rust-lang.org/t/pre-rfc-sandboxed-deterministic-reproducible-efficient-wasm-compilation-of-proc-macros/19359&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204013&gt;https://news.ycombinator.com/item?id=37204013&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Binance: Decoding the Borderless Crypto Empire</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://picapica.wtf/p/inside-binance-decoding-the-borderless</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://picapica.wtf/p/inside-binance-decoding-the-borderless&gt;https://picapica.wtf/p/inside-binance-decoding-the-borderless&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204422&gt;https://news.ycombinator.com/item?id=37204422&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ylem</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Ylem</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://en.wikipedia.org/wiki/Ylem&gt;https://en.wikipedia.org/wiki/Ylem&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204417&gt;https://news.ycombinator.com/item?id=37204417&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>32% of Americans have a tattoo, including 22% who have more than one</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.pewresearch.org/short-reads/2023/08/15/32-of-americans-have-a-tattoo-including-22-who-have-more-than-one/</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.pewresearch.org/short-reads/2023/08/15/32-of-americans-have-a-tattoo-including-22-who-have-more-than-one/&gt;https://www.pewresearch.org/short-reads/2023/08/15/32-of-americans-have-a-tattoo-including-22-who-have-more-than-one/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204414&gt;https://news.ycombinator.com/item?id=37204414&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Meta threatens to fire workers for return-to-office infractions in leaked memo</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.sfgate.com/tech/article/meta-threatens-return-to-office-layoffs-18303435.php</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.sfgate.com/tech/article/meta-threatens-return-to-office-layoffs-18303435.php&gt;https://www.sfgate.com/tech/article/meta-threatens-return-to-office-layoffs-18303435.php&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204408&gt;https://news.ycombinator.com/item?id=37204408&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Project Blinkenlights (2001 – 2023) [Talk] [video]</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://media.ccc.de/v/camp2023-57001-project_blinkenlights</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://media.ccc.de/v/camp2023-57001-project_blinkenlights&gt;https://media.ccc.de/v/camp2023-57001-project_blinkenlights&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204382&gt;https://news.ycombinator.com/item?id=37204382&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Kris Nova Hachyderm, GitHub Engineer died in a climbing accident</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://news.snbc13.com/kris-nova-hachyderm-github-engineer-died-in-a-climbing-accident-death-obituary/</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://news.snbc13.com/kris-nova-hachyderm-github-engineer-died-in-a-climbing-accident-death-obituary/&gt;https://news.snbc13.com/kris-nova-hachyderm-github-engineer-died-in-a-climbing-accident-death-obituary/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204378&gt;https://news.ycombinator.com/item?id=37204378&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Arsenic and PFAS Found in Guatemala City's Public Water</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.americanscientist.org/blog/from-the-staff/arsenic-and-pfas-found-in-guatemala-citys-public-water</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.americanscientist.org/blog/from-the-staff/arsenic-and-pfas-found-in-guatemala-citys-public-water&gt;https://www.americanscientist.org/blog/from-the-staff/arsenic-and-pfas-found-in-guatemala-citys-public-water&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204377&gt;https://news.ycombinator.com/item?id=37204377&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Icicle Lemonade Recipe</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.giopler.com/blog/2013-08-20-icicle-lemonade-recipe</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.giopler.com/blog/2013-08-20-icicle-lemonade-recipe&gt;https://www.giopler.com/blog/2013-08-20-icicle-lemonade-recipe&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204341&gt;https://news.ycombinator.com/item?id=37204341&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Twisted hunk of metal that used to be a Ferrari just sold for $1.9M</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/08/18/business/wrecked-ferrari-auction/index.html</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnn.com/2023/08/18/business/wrecked-ferrari-auction/index.html&gt;https://www.cnn.com/2023/08/18/business/wrecked-ferrari-auction/index.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204263&gt;https://news.ycombinator.com/item?id=37204263&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 4&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Hls.js – JavaScript Library for HTTP Live Streaming</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://github.com/video-dev/hls.js</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/video-dev/hls.js&gt;https://github.com/video-dev/hls.js&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204201&gt;https://news.ycombinator.com/item?id=37204201&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Sfmemory.org: Useful San Francisco and Bay Area History Resources</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://sfmemory.org/</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://sfmemory.org/&gt;https://sfmemory.org/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204193&gt;https://news.ycombinator.com/item?id=37204193&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 4&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Meta’s Threads App to Launch Web Version as Rivalry with X Enters New Stage</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.wsj.com/tech/metas-threads-app-to-launch-web-version-as-rivalry-with-x-enters-new-stage-706e8241</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.wsj.com/tech/metas-threads-app-to-launch-web-version-as-rivalry-with-x-enters-new-stage-706e8241&gt;https://www.wsj.com/tech/metas-threads-app-to-launch-web-version-as-rivalry-with-x-enters-new-stage-706e8241&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204140&gt;https://news.ycombinator.com/item?id=37204140&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 6&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Anaphoric Structure Emerges Between Neural Networks</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2308.07984</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://arxiv.org/abs/2308.07984&gt;https://arxiv.org/abs/2308.07984&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204114&gt;https://news.ycombinator.com/item?id=37204114&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>The New Swiss Passport</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://abduzeedo.com/index.php/node/87632</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://abduzeedo.com/index.php/node/87632&gt;https://abduzeedo.com/index.php/node/87632&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37204102&gt;https://news.ycombinator.com/item?id=37204102&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 11&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/hackernews/Hacker_News.xlsx
+++ b/testing/hackernews/Hacker_News.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6387,6 +6387,2171 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>eInk Is So Retropunk</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://rmkit.dev/eink-is-so-retropunk/</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://rmkit.dev/eink-is-so-retropunk/&gt;https://rmkit.dev/eink-is-so-retropunk/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210568&gt;https://news.ycombinator.com/item?id=37210568&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Oceans Release Microplastics into the Atmosphere</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.sciencedaily.com/releases/2023/08/230816114128.htm</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.sciencedaily.com/releases/2023/08/230816114128.htm&gt;https://www.sciencedaily.com/releases/2023/08/230816114128.htm&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210564&gt;https://news.ycombinator.com/item?id=37210564&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Motionshift Beta: Transform Video Creation with AI Editing</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.motionshift.io</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.motionshift.io&gt;https://www.motionshift.io&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210563&gt;https://news.ycombinator.com/item?id=37210563&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>A new JavaScript Regex flag to match extended character classes for Unicode</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://v8.dev/features/regexp-v-flag</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://v8.dev/features/regexp-v-flag&gt;https://v8.dev/features/regexp-v-flag&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210556&gt;https://news.ycombinator.com/item?id=37210556&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Show HN: Footage – Full-featured private video editor, 1.04 MB in size (iOS)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://apps.apple.com/us/app/footage-camera-movie-diary-in/id1610910337</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://apps.apple.com/us/app/footage-camera-movie-diary-in/id1610910337&gt;https://apps.apple.com/us/app/footage-camera-movie-diary-in/id1610910337&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210547&gt;https://news.ycombinator.com/item?id=37210547&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Facebook Dating Website – Facebook dating 2023 – Facebook dating app</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://datevast.com/facebook-dating-website-facebook-dating-2019-facebook-dating-app/</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://datevast.com/facebook-dating-website-facebook-dating-2019-facebook-dating-app/&gt;https://datevast.com/facebook-dating-website-facebook-dating-2019-facebook-dating-app/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210532&gt;https://news.ycombinator.com/item?id=37210532&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Government Blocking of “Tornado Cash” Was Legal, Didn't Violate First Amendment</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://reason.com/volokh/2023/08/20/government-blocking-of-tornado-cash-cryptocurrency-related-service-was-legal-didnt-violate-first-amendment/</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://reason.com/volokh/2023/08/20/government-blocking-of-tornado-cash-cryptocurrency-related-service-was-legal-didnt-violate-first-amendment/&gt;https://reason.com/volokh/2023/08/20/government-blocking-of-tornado-cash-cryptocurrency-related-service-was-legal-didnt-violate-first-amendment/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210528&gt;https://news.ycombinator.com/item?id=37210528&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Simple Method of Light Field Calculation for Shaping of 3D Light Curves</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.mdpi.com/2304-6732/10/8/941</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.mdpi.com/2304-6732/10/8/941&gt;https://www.mdpi.com/2304-6732/10/8/941&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210519&gt;https://news.ycombinator.com/item?id=37210519&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>haileys/bark: live sync audio streaming for local networks</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://github.com/haileys/bark</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/haileys/bark&gt;https://github.com/haileys/bark&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210515&gt;https://news.ycombinator.com/item?id=37210515&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>High severity vuln in WinRAR could allow code to run when files are opened</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.theregister.com/2023/08/21/winrar_vuln_could_allow_code/</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theregister.com/2023/08/21/winrar_vuln_could_allow_code/&gt;https://www.theregister.com/2023/08/21/winrar_vuln_could_allow_code/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210494&gt;https://news.ycombinator.com/item?id=37210494&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Hold the Moon's buildings are crumbling amid 200-year upgrade cycles</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.theregister.com/2023/08/18/nasa_buildings_upgrades/</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theregister.com/2023/08/18/nasa_buildings_upgrades/&gt;https://www.theregister.com/2023/08/18/nasa_buildings_upgrades/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210486&gt;https://news.ycombinator.com/item?id=37210486&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Google 'wiretapped' tax websites with visitor traffic trackers, lawsuit claims</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.theregister.com/2023/08/18/google_wiretapping_tax_data/</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theregister.com/2023/08/18/google_wiretapping_tax_data/&gt;https://www.theregister.com/2023/08/18/google_wiretapping_tax_data/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210482&gt;https://news.ycombinator.com/item?id=37210482&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Roblox facilitates “illegal gambling” for minors, according to new lawsuit</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://arstechnica.com/gaming/2023/08/roblox-facilitates-illegal-gambling-for-minors-according-to-new-lawsuit/</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://arstechnica.com/gaming/2023/08/roblox-facilitates-illegal-gambling-for-minors-according-to-new-lawsuit/&gt;https://arstechnica.com/gaming/2023/08/roblox-facilitates-illegal-gambling-for-minors-according-to-new-lawsuit/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210475&gt;https://news.ycombinator.com/item?id=37210475&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>I'm 15 years old and I wrote a QR code generator in Rust as my first project</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://pionir.org/blog/qr-code-generator-in-rust/</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://pionir.org/blog/qr-code-generator-in-rust/&gt;https://pionir.org/blog/qr-code-generator-in-rust/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210466&gt;https://news.ycombinator.com/item?id=37210466&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>How to Properly Store Your Game Boy Cartridges</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://brainbaking.com/post/2022/05/how-to-properly-store-your-gameboy-cartridges/</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://brainbaking.com/post/2022/05/how-to-properly-store-your-gameboy-cartridges/&gt;https://brainbaking.com/post/2022/05/how-to-properly-store-your-gameboy-cartridges/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210465&gt;https://news.ycombinator.com/item?id=37210465&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Nvidia Built a Competitive Moat Around A.I. Chips</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/2023/08/21/technology/nvidia-ai-chips-gpu.html</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.nytimes.com/2023/08/21/technology/nvidia-ai-chips-gpu.html&gt;https://www.nytimes.com/2023/08/21/technology/nvidia-ai-chips-gpu.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210458&gt;https://news.ycombinator.com/item?id=37210458&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Maternal phthalate exposure promotes allergic airway inflammation</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/28392331/</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://pubmed.ncbi.nlm.nih.gov/28392331/&gt;https://pubmed.ncbi.nlm.nih.gov/28392331/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210451&gt;https://news.ycombinator.com/item?id=37210451&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Is PHP Worth Learning in 2023?</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://anastasionico.uk/blog/is-php-worth-learning-in-2023</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://anastasionico.uk/blog/is-php-worth-learning-in-2023&gt;https://anastasionico.uk/blog/is-php-worth-learning-in-2023&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210447&gt;https://news.ycombinator.com/item?id=37210447&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Quantum zero-resistance research continues</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://theconversation.com/hopes-fade-for-room-temperature-superconductor-lk-99-but-quantum-zero-resistance-research-continues-211733</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://theconversation.com/hopes-fade-for-room-temperature-superconductor-lk-99-but-quantum-zero-resistance-research-continues-211733&gt;https://theconversation.com/hopes-fade-for-room-temperature-superconductor-lk-99-but-quantum-zero-resistance-research-continues-211733&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210429&gt;https://news.ycombinator.com/item?id=37210429&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>OpenAI's first acquisition - an AI design studio Global Illumination</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://techcrunch.com/2023/08/16/openai-acquires-ai-design-studio-global-illumination/</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://techcrunch.com/2023/08/16/openai-acquires-ai-design-studio-global-illumination/&gt;https://techcrunch.com/2023/08/16/openai-acquires-ai-design-studio-global-illumination/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210417&gt;https://news.ycombinator.com/item?id=37210417&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Show off your LLM Agents</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37210660</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;What type of agents are you building?&lt;p&gt;Do you have a project to show off?&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210660&gt;https://news.ycombinator.com/item?id=37210660&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>American workers are demanding almost $80k a year to take a new job</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www.cnbc.com/2023/08/21/american-workers-are-demanding-almost-80000-a-year-to-take-a-new-job.html</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnbc.com/2023/08/21/american-workers-are-demanding-almost-80000-a-year-to-take-a-new-job.html&gt;https://www.cnbc.com/2023/08/21/american-workers-are-demanding-almost-80000-a-year-to-take-a-new-job.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210650&gt;https://news.ycombinator.com/item?id=37210650&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Sono – A professional network for the next generation</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://www.sono.am/</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.sono.am/&gt;https://www.sono.am/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210642&gt;https://news.ycombinator.com/item?id=37210642&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Yip.pe</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://yip.pe/</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://yip.pe/&gt;https://yip.pe/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210625&gt;https://news.ycombinator.com/item?id=37210625&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>''Vinegar Syndrome'' Decaying Archives of Cellulose Acetate Microfilm Stock</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www.cbc.ca/news/canada/toronto/vinegar-syndrome-acetate-film-1.6939032</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cbc.ca/news/canada/toronto/vinegar-syndrome-acetate-film-1.6939032&gt;https://www.cbc.ca/news/canada/toronto/vinegar-syndrome-acetate-film-1.6939032&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210615&gt;https://news.ycombinator.com/item?id=37210615&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Russia loses 460 soldiers, 19 artillery systems, and 12 tanks in one day</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://global.espreso.tv/russia-loses-460-soldiers-19-artillery-systems-and-12-tanks-in-one-day-general-staff</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://global.espreso.tv/russia-loses-460-soldiers-19-artillery-systems-and-12-tanks-in-one-day-general-staff&gt;https://global.espreso.tv/russia-loses-460-soldiers-19-artillery-systems-and-12-tanks-in-one-day-general-staff&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210605&gt;https://news.ycombinator.com/item?id=37210605&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Oil eating microbes reshape droplets to optimize biodegradation</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://phys.org/news/2023-08-oil-microbes-reshape-droplets-optimize.html</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://phys.org/news/2023-08-oil-microbes-reshape-droplets-optimize.html&gt;https://phys.org/news/2023-08-oil-microbes-reshape-droplets-optimize.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210601&gt;https://news.ycombinator.com/item?id=37210601&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Show HN: AI to help you online date better</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://smalltalks.ai/</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;SmallTalks was born from my personal experience dating in NYC, where I struggled with the apps for quite a while before eventually figuring things out.&lt;p&gt;Initially, this app is focused on helping people build high performing Hinge and Bumble profiles by combining AI and human expertise, along with empirical data from content experiments.&lt;p&gt;Most online daters are not strategic about designing their Hinge or Bumble profiles but it's actually immensely important to be intentional about that process. Online dating is a power law distribution as far as matching goes (a small percentage of profiles attract an outsized amount of attention), so it's critical that you optimize your profile to fit your relationship goals.&lt;p&gt;If you sign up and go through the quick onboarding process, we'll review your existing dating profile for free using the same kind of general thought process as displayed here:&lt;p&gt;&lt;a href=https://www.loom.com/share/4619b64b935d4357818a307d5c176b20?sid=a7850ab0-8659-4aeb-a8c6-6e3a562a9556 rel=nofollow noreferrer&gt;https://www.loom.com/share/4619b64b935d4357818a307d5c176b20?...&lt;/a&gt;).&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210600&gt;https://news.ycombinator.com/item?id=37210600&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>I come here not to bury Delphi, but to praise it (2019)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://accu.org/journals/overload/27/153/martin_2703/</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://accu.org/journals/overload/27/153/martin_2703/&gt;https://accu.org/journals/overload/27/153/martin_2703/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210584&gt;https://news.ycombinator.com/item?id=37210584&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Subclassing wheel builds for fun and profit</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://freeman.vc/notes/subclassing-wheel-builds-for-fun-and-profit</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://freeman.vc/notes/subclassing-wheel-builds-for-fun-and-profit&gt;https://freeman.vc/notes/subclassing-wheel-builds-for-fun-and-profit&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210582&gt;https://news.ycombinator.com/item?id=37210582&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Ask HN: What's the biggest red flag you've encountered during a hiring process?</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37210581</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I'll start.&lt;p&gt;A few years back, I was interviewing at a then hot startup. At the end of the process, the CTO calls and says they'd like to extend an offer. I was expecting him to walk me through the offer details, when he goes well, are you going to take it? I asked about getting some specifics (cash comp, equity, etc.) and he explains that they ask candidates to commit before sharing any details.&lt;p&gt;I told him that didn't seem like such a great idea, and he assured me that comp wouldn't be an issue, and that they do this to avoid hiring mercenaries. I passed and never looked back.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210581&gt;https://news.ycombinator.com/item?id=37210581&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Get ready to Ship **it Securely</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://www.netlify.com/blog/ship-it-securely-with-netlifys-enterprise-security-infrastructure/</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.netlify.com/blog/ship-it-securely-with-netlifys-enterprise-security-infrastructure/&gt;https://www.netlify.com/blog/ship-it-securely-with-netlifys-enterprise-security-infrastructure/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210580&gt;https://news.ycombinator.com/item?id=37210580&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>US Gov Warns of Foreign Intelligence Cyberattacks Against US Space Industry</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://www.securityweek.com/us-gov-warns-of-foreign-intelligence-cyberattacks-against-us-space-industry/</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.securityweek.com/us-gov-warns-of-foreign-intelligence-cyberattacks-against-us-space-industry/&gt;https://www.securityweek.com/us-gov-warns-of-foreign-intelligence-cyberattacks-against-us-space-industry/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211145&gt;https://news.ycombinator.com/item?id=37211145&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Self-Host Google Fonts</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://wpspeedmatters.com/self-host-google-fonts/</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://wpspeedmatters.com/self-host-google-fonts/&gt;https://wpspeedmatters.com/self-host-google-fonts/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211138&gt;https://news.ycombinator.com/item?id=37211138&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Amazon adds AI-generated review summaries so you don’t have to read the comments</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://www.theverge.com/2023/8/14/23831391/amazon-review-summaries-generative-ai</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theverge.com/2023/8/14/23831391/amazon-review-summaries-generative-ai&gt;https://www.theverge.com/2023/8/14/23831391/amazon-review-summaries-generative-ai&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211132&gt;https://news.ycombinator.com/item?id=37211132&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>8MB QSPI RAM Expansion for RP2040 via SSI</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://dmitry.gr/?r=06.%20Thoughts&amp;proj=10.%20RomRam</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://dmitry.gr/?r=06.%20Thoughts&amp;amp;proj=10.%20RomRam&gt;https://dmitry.gr/?r=06.%20Thoughts&amp;amp;proj=10.%20RomRam&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211114&gt;https://news.ycombinator.com/item?id=37211114&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Interesting opinions on OpenTF and potentially impacted projects</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://blog.massdriver.cloud/posts/the-changing-face-of-open-source/</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://blog.massdriver.cloud/posts/the-changing-face-of-open-source/&gt;https://blog.massdriver.cloud/posts/the-changing-face-of-open-source/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211091&gt;https://news.ycombinator.com/item?id=37211091&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Microservice architecture – the right way – even for startups</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://github.com/fvst-dev/fvst-monorepo</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/fvst-dev/fvst-monorepo&gt;https://github.com/fvst-dev/fvst-monorepo&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211063&gt;https://news.ycombinator.com/item?id=37211063&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>MySkillFolio</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37211059</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Everything you need is a link in bio page to showcase your skills&lt;p&gt;https://www.myskillfolio.xyz/&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211059&gt;https://news.ycombinator.com/item?id=37211059&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Scammers Used ChatGPT to Unleash a Crypto Botnet on X</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/chat-gpt-crypto-botnet-scam/</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.wired.com/story/chat-gpt-crypto-botnet-scam/&gt;https://www.wired.com/story/chat-gpt-crypto-botnet-scam/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211025&gt;https://news.ycombinator.com/item?id=37211025&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>The Scorpion and the Frog</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/The_Scorpion_and_the_Frog</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://en.wikipedia.org/wiki/The_Scorpion_and_the_Frog&gt;https://en.wikipedia.org/wiki/The_Scorpion_and_the_Frog&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211024&gt;https://news.ycombinator.com/item?id=37211024&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Writing a TOTP Client in Go</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://rednafi.com/go/totp_client/</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://rednafi.com/go/totp_client/&gt;https://rednafi.com/go/totp_client/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211021&gt;https://news.ycombinator.com/item?id=37211021&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 5&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Astronaut: YouTube videos that have almost zero previous views</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>http://astronaut.io/</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=http://astronaut.io/&gt;http://astronaut.io/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211020&gt;https://news.ycombinator.com/item?id=37211020&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Visualize core-to-core latency</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://github.com/andportnoy/core-to-core-latency</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/andportnoy/core-to-core-latency&gt;https://github.com/andportnoy/core-to-core-latency&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211002&gt;https://news.ycombinator.com/item?id=37211002&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>It’s-a-no-longer me: Charles Martinet steps down as Mario’s voice</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://arstechnica.com/gaming/2023/08/its-a-no-longer-me-charles-martinet-steps-down-as-marios-voice/</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://arstechnica.com/gaming/2023/08/its-a-no-longer-me-charles-martinet-steps-down-as-marios-voice/&gt;https://arstechnica.com/gaming/2023/08/its-a-no-longer-me-charles-martinet-steps-down-as-marios-voice/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210983&gt;https://news.ycombinator.com/item?id=37210983&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Do Something Foolish to Completion</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://existentialchatbot.substack.com/p/do-something-foolish-to-completion</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://existentialchatbot.substack.com/p/do-something-foolish-to-completion&gt;https://existentialchatbot.substack.com/p/do-something-foolish-to-completion&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210966&gt;https://news.ycombinator.com/item?id=37210966&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>New study measures grammatical complexity of 1,314 languages</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://phys.org/news/2023-08-evolution-complex-grammars-grammatical-complexity.html</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://phys.org/news/2023-08-evolution-complex-grammars-grammatical-complexity.html&gt;https://phys.org/news/2023-08-evolution-complex-grammars-grammatical-complexity.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210961&gt;https://news.ycombinator.com/item?id=37210961&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Don't Fire Your Illustrator</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://sambleckley.com/writing/dont-fire-your-illustrator.html</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://sambleckley.com/writing/dont-fire-your-illustrator.html&gt;https://sambleckley.com/writing/dont-fire-your-illustrator.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210953&gt;https://news.ycombinator.com/item?id=37210953&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Is Tropical Storm Hilary Bringing Rain to Lake Mead? A Deep Dive</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://coopwb.in/info/is-lake-mead-getting-rain/</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://coopwb.in/info/is-lake-mead-getting-rain/&gt;https://coopwb.in/info/is-lake-mead-getting-rain/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210948&gt;https://news.ycombinator.com/item?id=37210948&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Let’s Stop Pretending College Degrees Don’t Matter</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/2023/08/21/opinion/skills-based-hiring-college-degree-job-market-wage-premium.html</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.nytimes.com/2023/08/21/opinion/skills-based-hiring-college-degree-job-market-wage-premium.html&gt;https://www.nytimes.com/2023/08/21/opinion/skills-based-hiring-college-degree-job-market-wage-premium.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210942&gt;https://news.ycombinator.com/item?id=37210942&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Interactive Topography Sandbox</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://twitter.com/Locati0ns/status/1693335090070446465</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/Locati0ns/status/1693335090070446465&gt;https://twitter.com/Locati0ns/status/1693335090070446465&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210909&gt;https://news.ycombinator.com/item?id=37210909&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>El Salvador Diary: Lightning Is Key to Bitcoin Adoption</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://www.coindesk.com/consensus-magazine/2023/08/18/el-salvador-diary-lightning-is-key-to-bitcoin-adoption/</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.coindesk.com/consensus-magazine/2023/08/18/el-salvador-diary-lightning-is-key-to-bitcoin-adoption/&gt;https://www.coindesk.com/consensus-magazine/2023/08/18/el-salvador-diary-lightning-is-key-to-bitcoin-adoption/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37210906&gt;https://news.ycombinator.com/item?id=37210906&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>“An inspiration” – John Warnock, Adobe co-founder, dies aged 82</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://www.itpro.com/software/adobe-co-founder-john-warnock-dies-aged-82</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.itpro.com/software/adobe-co-founder-john-warnock-dies-aged-82&gt;https://www.itpro.com/software/adobe-co-founder-john-warnock-dies-aged-82&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211373&gt;https://news.ycombinator.com/item?id=37211373&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Clever coating turns lampshades into indoor air purifiers</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://techxplore.com/news/2023-08-clever-coating-lampshades-indoor-air.html</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://techxplore.com/news/2023-08-clever-coating-lampshades-indoor-air.html&gt;https://techxplore.com/news/2023-08-clever-coating-lampshades-indoor-air.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211365&gt;https://news.ycombinator.com/item?id=37211365&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Hands-On Kubernetes Operator Development: Testing</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://www.codereliant.io/hands-on-kubernetes-operator-testing/</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.codereliant.io/hands-on-kubernetes-operator-testing/&gt;https://www.codereliant.io/hands-on-kubernetes-operator-testing/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211347&gt;https://news.ycombinator.com/item?id=37211347&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Our principles for partnering with the music industry on AI technology</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://blog.youtube/inside-youtube/partnering-with-the-music-industry-on-ai/</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://blog.youtube/inside-youtube/partnering-with-the-music-industry-on-ai/&gt;https://blog.youtube/inside-youtube/partnering-with-the-music-industry-on-ai/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211342&gt;https://news.ycombinator.com/item?id=37211342&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Storing passkeys in password managers is okay</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://cendyne.dev/posts/2023-08-21-passkeys-in-password-managers-is-okay.html</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://cendyne.dev/posts/2023-08-21-passkeys-in-password-managers-is-okay.html&gt;https://cendyne.dev/posts/2023-08-21-passkeys-in-password-managers-is-okay.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211315&gt;https://news.ycombinator.com/item?id=37211315&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Netscape and the History of SSL</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://cybersecweekly.com/about-us/f/netscape-the-company-that-changed-web-security-forever</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://cybersecweekly.com/about-us/f/netscape-the-company-that-changed-web-security-forever&gt;https://cybersecweekly.com/about-us/f/netscape-the-company-that-changed-web-security-forever&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211314&gt;https://news.ycombinator.com/item?id=37211314&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Thought Crime – By Michael Huemer – Fake Noûs</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://fakenous.substack.com/p/thought-crime</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://fakenous.substack.com/p/thought-crime&gt;https://fakenous.substack.com/p/thought-crime&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211299&gt;https://news.ycombinator.com/item?id=37211299&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>China wants to limit minors to no more than two hours a day on their phones</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/08/03/tech/china-minors-mobile-phone-limits-intl-hnk/index.html</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnn.com/2023/08/03/tech/china-minors-mobile-phone-limits-intl-hnk/index.html&gt;https://www.cnn.com/2023/08/03/tech/china-minors-mobile-phone-limits-intl-hnk/index.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211293&gt;https://news.ycombinator.com/item?id=37211293&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Ask HN: What do you do to reduce stress or keep work stress away from work life?</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37211286</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Recently got diagnosed with generalized anxiety just 2 years after getting promoted as a Eng. Manager.&lt;p&gt;It seems that I am stuck in a vicious circle where my work woes keep me from being my best in the personal life (exercise, spending quality time with family, sleep) and resulting issues in physical and mental ealth means I slip up more at work and the cycle repeats.&lt;p&gt;Wondering what are some goto behaviors/tactics I might be lacking to make it work.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211286&gt;https://news.ycombinator.com/item?id=37211286&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>WHO’s first traditional medicine summit splits opinions</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://www.nature.com/articles/d41586-023-02636-z</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.nature.com/articles/d41586-023-02636-z&gt;https://www.nature.com/articles/d41586-023-02636-z&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211273&gt;https://news.ycombinator.com/item?id=37211273&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Machine Learning and Card Games</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://medium.com/@tor_92315/machine-learning-and-card-games-6b210f8ec322</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://medium.com/@tor_92315/machine-learning-and-card-games-6b210f8ec322&gt;https://medium.com/@tor_92315/machine-learning-and-card-games-6b210f8ec322&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211251&gt;https://news.ycombinator.com/item?id=37211251&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>What Are FD&amp;C Dyes and Lakes (and How Do They Differ)?</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://www.madmicas.com/pages/what-are-fd-c-dyes-and-lakes-and-how-do-they-differ</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.madmicas.com/pages/what-are-fd-c-dyes-and-lakes-and-how-do-they-differ&gt;https://www.madmicas.com/pages/what-are-fd-c-dyes-and-lakes-and-how-do-they-differ&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211231&gt;https://news.ycombinator.com/item?id=37211231&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Steve Jobs: Fast boot times saves lives</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://www.folklore.org/StoryView.py?story=Saving_Lives.txt</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.folklore.org/StoryView.py?story=Saving_Lives.txt&gt;https://www.folklore.org/StoryView.py?story=Saving_Lives.txt&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211230&gt;https://news.ycombinator.com/item?id=37211230&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Why PayPal's stablecoin is likely to succeed where Facebook's Libra failed</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://www.reuters.com/technology/why-paypals-stablecoin-is-likely-succeed-where-facebooks-libra-failed-2023-08-21/</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.reuters.com/technology/why-paypals-stablecoin-is-likely-succeed-where-facebooks-libra-failed-2023-08-21/&gt;https://www.reuters.com/technology/why-paypals-stablecoin-is-likely-succeed-where-facebooks-libra-failed-2023-08-21/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211218&gt;https://news.ycombinator.com/item?id=37211218&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>State-of-the-Art Sublette County Greenhouse Helps Fill a Wyoming Food Desert</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://cowboystatedaily.com/2023/08/19/state-of-the-art-sublette-county-greenhouse-helps-fill-a-wyoming-food-desert/</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://cowboystatedaily.com/2023/08/19/state-of-the-art-sublette-county-greenhouse-helps-fill-a-wyoming-food-desert/&gt;https://cowboystatedaily.com/2023/08/19/state-of-the-art-sublette-county-greenhouse-helps-fill-a-wyoming-food-desert/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211202&gt;https://news.ycombinator.com/item?id=37211202&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>CYP19A1 mediates severe SARS-CoV-2 disease outcome in males</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37572667/</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://pubmed.ncbi.nlm.nih.gov/37572667/&gt;https://pubmed.ncbi.nlm.nih.gov/37572667/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211469&gt;https://news.ycombinator.com/item?id=37211469&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>9% price increase for .COM and .XYZ domains starting Sept 1, 2023</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/5cGazrG.png</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://i.imgur.com/5cGazrG.png&gt;https://i.imgur.com/5cGazrG.png&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211462&gt;https://news.ycombinator.com/item?id=37211462&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Hacked records corroborate claims in hydroxychloroquine wrongful death lawsuit</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://theintercept.com/2023/08/21/americas-frontline-doctors-hydroxychloroquine-wrongful-death/</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://theintercept.com/2023/08/21/americas-frontline-doctors-hydroxychloroquine-wrongful-death/&gt;https://theintercept.com/2023/08/21/americas-frontline-doctors-hydroxychloroquine-wrongful-death/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211437&gt;https://news.ycombinator.com/item?id=37211437&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Vue 3 is currently performing better than Svelte and React</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://twitter.com/icarusgkx/status/1693620200543862852</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/icarusgkx/status/1693620200543862852&gt;https://twitter.com/icarusgkx/status/1693620200543862852&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211431&gt;https://news.ycombinator.com/item?id=37211431&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>the US mall is not dying</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/08/20/business/shopping-mall-retail-growth/index.html</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnn.com/2023/08/20/business/shopping-mall-retail-growth/index.html&gt;https://www.cnn.com/2023/08/20/business/shopping-mall-retail-growth/index.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211419&gt;https://news.ycombinator.com/item?id=37211419&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/hackernews/Hacker_News.xlsx
+++ b/testing/hackernews/Hacker_News.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8552,6 +8552,2411 @@
         </is>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>First K239 Chunmoo MLRS Rckts/Missile Launcher Arrive in Poland from South Korea</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://www.armyrecognition.com/defense_news_august_2023_global_security_army_industry/first_k239_chunmoo_mlrs_rockets/missile_launcher_arrive_in_poland_from_south_korea.html</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.armyrecognition.com/defense_news_august_2023_global_security_army_industry/first_k239_chunmoo_mlrs_rockets/missile_launcher_arrive_in_poland_from_south_korea.html&gt;https://www.armyrecognition.com/defense_news_august_2023_global_security_army_industry/first_k239_chunmoo_mlrs_rockets/missile_launcher_arrive_in_poland_from_south_korea.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211807&gt;https://news.ycombinator.com/item?id=37211807&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Hunchly Team Releases 6 Years of Tor Crawls</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://www.dailydarkweb.com</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.dailydarkweb.com&gt;https://www.dailydarkweb.com&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211802&gt;https://news.ycombinator.com/item?id=37211802&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Poll: Which distro do you use? (2023)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37211765</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;You can upvote several distros if you use them all regularly. The list of distros mostly comes from a recent HN submission: https://news.ycombinator.com/item?id=36838712&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211765&gt;https://news.ycombinator.com/item?id=37211765&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Why SF’s Drug Policies Fail vs. European Medication Assisted Treatment Programs</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://twitter.com/atdrummond/status/1681304084987641858?s=46&amp;t=ngPBiurLOQ-sRLGLCk2isA</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/atdrummond/status/1681304084987641858?s=46&amp;amp;t=ngPBiurLOQ-sRLGLCk2isA&gt;https://twitter.com/atdrummond/status/1681304084987641858?s=46&amp;amp;t=ngPBiurLOQ-sRLGLCk2isA&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211759&gt;https://news.ycombinator.com/item?id=37211759&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 2&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Show HN: Walk – Terminal Navigator</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://github.com/antonmedv/walk</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/antonmedv/walk&gt;https://github.com/antonmedv/walk&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211708&gt;https://news.ycombinator.com/item?id=37211708&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>EASA AMC 20-193 Use of multi-core processors [pdf]</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://www.easa.europa.eu/sites/default/files/dfu/annex_i_to_ed_decision_2022-001-r_amc_20-193_use_of_multi-core_processors_mcps.pdf</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.easa.europa.eu/sites/default/files/dfu/annex_i_to_ed_decision_2022-001-r_amc_20-193_use_of_multi-core_processors_mcps.pdf&gt;https://www.easa.europa.eu/sites/default/files/dfu/annex_i_to_ed_decision_2022-001-r_amc_20-193_use_of_multi-core_processors_mcps.pdf&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211707&gt;https://news.ycombinator.com/item?id=37211707&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Namecheap to increase .COM and .XYZ prices</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://www.namecheap.com/blog/upcoming-com-and-xyz-domain-price-increase/</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.namecheap.com/blog/upcoming-com-and-xyz-domain-price-increase/&gt;https://www.namecheap.com/blog/upcoming-com-and-xyz-domain-price-increase/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211675&gt;https://news.ycombinator.com/item?id=37211675&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 9&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Solar Greenhouses Generate Electricity and Grow Crops at the Same Time</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://www.ecosnippets.com/alternative-energy/solar-greenhouses-generate-electricity/</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.ecosnippets.com/alternative-energy/solar-greenhouses-generate-electricity/&gt;https://www.ecosnippets.com/alternative-energy/solar-greenhouses-generate-electricity/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211662&gt;https://news.ycombinator.com/item?id=37211662&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Exclusive Premiere of Futurist Gerd Leonhard's New Film on AI and Humanity [video]</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=mEr9MDyMfKc</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.youtube.com/watch?v=mEr9MDyMfKc&gt;https://www.youtube.com/watch?v=mEr9MDyMfKc&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211660&gt;https://news.ycombinator.com/item?id=37211660&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>The broad set of computer science problems faced at cloud database companies</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://davidgomes.com/the-broad-set-of-computer-science-problems-faced-at-cloud-database-companies/</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://davidgomes.com/the-broad-set-of-computer-science-problems-faced-at-cloud-database-companies/&gt;https://davidgomes.com/the-broad-set-of-computer-science-problems-faced-at-cloud-database-companies/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211642&gt;https://news.ycombinator.com/item?id=37211642&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Sweetgreen Hires Former Chipotle Executives, Readies Mid-America Push</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://www.wsj.com/articles/sweetgreen-hires-former-chipotle-executives-readies-mid-america-push-e33bb956</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.wsj.com/articles/sweetgreen-hires-former-chipotle-executives-readies-mid-america-push-e33bb956&gt;https://www.wsj.com/articles/sweetgreen-hires-former-chipotle-executives-readies-mid-america-push-e33bb956&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211627&gt;https://news.ycombinator.com/item?id=37211627&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>The bulldozer as a symbol of state power – and how Gandhi warned against it</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://www.newslaundry.com/2023/08/21/the-bulldozer-as-a-symbol-of-state-power-and-how-gandhi-warned-against-it</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.newslaundry.com/2023/08/21/the-bulldozer-as-a-symbol-of-state-power-and-how-gandhi-warned-against-it&gt;https://www.newslaundry.com/2023/08/21/the-bulldozer-as-a-symbol-of-state-power-and-how-gandhi-warned-against-it&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211610&gt;https://news.ycombinator.com/item?id=37211610&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Want to have your genes tested? It might be genetic</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://arstechnica.com/science/2023/08/genetics-makes-some-people-more-likely-to-participate-in-genetic-studies/</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://arstechnica.com/science/2023/08/genetics-makes-some-people-more-likely-to-participate-in-genetic-studies/&gt;https://arstechnica.com/science/2023/08/genetics-makes-some-people-more-likely-to-participate-in-genetic-studies/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211576&gt;https://news.ycombinator.com/item?id=37211576&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Steven Wolfram on AI Alignment</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://www.lesswrong.com/posts/osPFESHQKLa2X3adb/steven-wolfram-on-ai-alignment</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.lesswrong.com/posts/osPFESHQKLa2X3adb/steven-wolfram-on-ai-alignment&gt;https://www.lesswrong.com/posts/osPFESHQKLa2X3adb/steven-wolfram-on-ai-alignment&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211574&gt;https://news.ycombinator.com/item?id=37211574&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>MacLynx beta 5: UTF-8, pull-down menus and more dialogue boxes</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>http://oldvcr.blogspot.com/2023/08/maclynx-beta-5-utf-8-pull-down-menus.html</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=http://oldvcr.blogspot.com/2023/08/maclynx-beta-5-utf-8-pull-down-menus.html&gt;http://oldvcr.blogspot.com/2023/08/maclynx-beta-5-utf-8-pull-down-menus.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211542&gt;https://news.ycombinator.com/item?id=37211542&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 6&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Ancient Japanese Islanders Create Signature Skull Shape by Molding Babies’ Heads</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://www.smithsonianmag.com/smart-news/these-ancient-japanese-islanders-created-a-signature-skull-shape-by-molding-babies-heads-180982763/</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.smithsonianmag.com/smart-news/these-ancient-japanese-islanders-created-a-signature-skull-shape-by-molding-babies-heads-180982763/&gt;https://www.smithsonianmag.com/smart-news/these-ancient-japanese-islanders-created-a-signature-skull-shape-by-molding-babies-heads-180982763/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211541&gt;https://news.ycombinator.com/item?id=37211541&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>I Made Stable Diffusion XL Smarter by Finetuning It on Bad AI-Generated Images</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://minimaxir.com/2023/08/stable-diffusion-xl-wrong/</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://minimaxir.com/2023/08/stable-diffusion-xl-wrong/&gt;https://minimaxir.com/2023/08/stable-diffusion-xl-wrong/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211519&gt;https://news.ycombinator.com/item?id=37211519&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 6&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Pentagon awards $1.5B to Lockheed Martin, Northrop Grumman for comms satellites</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://www.cnbc.com/2023/08/21/pentagon-awards-1point5-billion-to-lockheed-martin-northrop-grumman.html</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnbc.com/2023/08/21/pentagon-awards-1point5-billion-to-lockheed-martin-northrop-grumman.html&gt;https://www.cnbc.com/2023/08/21/pentagon-awards-1point5-billion-to-lockheed-martin-northrop-grumman.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211505&gt;https://news.ycombinator.com/item?id=37211505&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1OPS: One Operation per Statement</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://blog.pwkf.org/2023/08/17/one-sloc.html</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://blog.pwkf.org/2023/08/17/one-sloc.html&gt;https://blog.pwkf.org/2023/08/17/one-sloc.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211492&gt;https://news.ycombinator.com/item?id=37211492&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Toy Models of Superposition</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://transformer-circuits.pub/2022/toy_model/index.html</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://transformer-circuits.pub/2022/toy_model/index.html&gt;https://transformer-circuits.pub/2022/toy_model/index.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211482&gt;https://news.ycombinator.com/item?id=37211482&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Fischer–Tropsch Process</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Fischer%E2%80%93Tropsch_process</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://en.wikipedia.org/wiki/Fischer%E2%80%93Tropsch_process&gt;https://en.wikipedia.org/wiki/Fischer%E2%80%93Tropsch_process&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212009&gt;https://news.ycombinator.com/item?id=37212009&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Movie Theaters Offering $4 Tickets on Aug. 27 for 2nd Annual National Cinema Day</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://www.hollywoodreporter.com/movies/movie-news/movie-theaters-4-dollar-tickets-august-27-1235571034/</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.hollywoodreporter.com/movies/movie-news/movie-theaters-4-dollar-tickets-august-27-1235571034/&gt;https://www.hollywoodreporter.com/movies/movie-news/movie-theaters-4-dollar-tickets-august-27-1235571034/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212008&gt;https://news.ycombinator.com/item?id=37212008&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Medicine without doctors? State laws are changing who treats patients</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://www.washingtonpost.com/health/2023/08/20/nurse-doctor-scope-medical-titles/</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.washingtonpost.com/health/2023/08/20/nurse-doctor-scope-medical-titles/&gt;https://www.washingtonpost.com/health/2023/08/20/nurse-doctor-scope-medical-titles/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211986&gt;https://news.ycombinator.com/item?id=37211986&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Venture capital funds are mostly just wasting their time and your money</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>https://www.ft.com/content/2099d3c1-65ba-4c20-a50c-f730fd258f42</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.ft.com/content/2099d3c1-65ba-4c20-a50c-f730fd258f42&gt;https://www.ft.com/content/2099d3c1-65ba-4c20-a50c-f730fd258f42&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211981&gt;https://news.ycombinator.com/item?id=37211981&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Zach Coelius – How SF's drug problem got out of control</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://twitter.com/zachcoelius/status/1693369842282492340</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/zachcoelius/status/1693369842282492340&gt;https://twitter.com/zachcoelius/status/1693369842282492340&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211977&gt;https://news.ycombinator.com/item?id=37211977&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Open Sourcing Pocket Size Fund</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>https://twitter.com/forstmeier/status/1693662998420766974</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/forstmeier/status/1693662998420766974&gt;https://twitter.com/forstmeier/status/1693662998420766974&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211956&gt;https://news.ycombinator.com/item?id=37211956&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>An Improved Unix Terminal – Demo App for VanJS</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://github.com/vanjs-org/van/tree/main/demo/terminal</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/vanjs-org/van/tree/main/demo/terminal&gt;https://github.com/vanjs-org/van/tree/main/demo/terminal&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211949&gt;https://news.ycombinator.com/item?id=37211949&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>The First Real Images of Mercury – What We Found? [video]</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=X4sZd41ZRaQ</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.youtube.com/watch?v=X4sZd41ZRaQ&gt;https://www.youtube.com/watch?v=X4sZd41ZRaQ&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211937&gt;https://news.ycombinator.com/item?id=37211937&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Build a Business, Not an Audience</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://jakobgreenfeld.com/build_an_audience</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://jakobgreenfeld.com/build_an_audience&gt;https://jakobgreenfeld.com/build_an_audience&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211933&gt;https://news.ycombinator.com/item?id=37211933&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Pocketbook announces their first e-note, the Pocketbook InkPad X Pro</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://goodereader.com/blog/electronic-readers/pocketbook-announces-their-first-e-note-the-pocketbook-inkpad-x-pro</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://goodereader.com/blog/electronic-readers/pocketbook-announces-their-first-e-note-the-pocketbook-inkpad-x-pro&gt;https://goodereader.com/blog/electronic-readers/pocketbook-announces-their-first-e-note-the-pocketbook-inkpad-x-pro&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211924&gt;https://news.ycombinator.com/item?id=37211924&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>PMs and Analysts: Your Biggest Challenge in Product Analytics?</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37211907</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Hi HN community,&lt;p&gt;I'm diving deep into the realm of product analytics and am curious about the primary challenges you face in this area. Is there a specific tool you wish existed? Or a particular feature in current tools that's missing or not implemented well?&lt;p&gt;I'd appreciate any insights or stories you might want to share. My goal is to better understand the pain points and see if there's a potential solution I could build or improve upon.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211907&gt;https://news.ycombinator.com/item?id=37211907&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>The little-known shipwreck that inspired Bram Stoker’s ‘Dracula’</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://www.nationalgeographic.com/history/article/last-voyage-of-the-demeter-dracula-dmitry</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.nationalgeographic.com/history/article/last-voyage-of-the-demeter-dracula-dmitry&gt;https://www.nationalgeographic.com/history/article/last-voyage-of-the-demeter-dracula-dmitry&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211906&gt;https://news.ycombinator.com/item?id=37211906&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>What is ABI and what should WG21 do about it? (2020) [pdf]</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://www.open-std.org/jtc1/sc22/wg21/docs/papers/2020/p2028r0.pdf</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.open-std.org/jtc1/sc22/wg21/docs/papers/2020/p2028r0.pdf&gt;https://www.open-std.org/jtc1/sc22/wg21/docs/papers/2020/p2028r0.pdf&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211904&gt;https://news.ycombinator.com/item?id=37211904&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>As China Falls into Deflation, the Mood Turns Dark</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/2023/08/21/business/china-deflation.html</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.nytimes.com/2023/08/21/business/china-deflation.html&gt;https://www.nytimes.com/2023/08/21/business/china-deflation.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211902&gt;https://news.ycombinator.com/item?id=37211902&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Unlocking mysteries of octopus cognition: Paving the way for memory research</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://phys.org/news/2023-08-mysteries-octopus-cognition-paving-memory.html</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://phys.org/news/2023-08-mysteries-octopus-cognition-paving-memory.html&gt;https://phys.org/news/2023-08-mysteries-octopus-cognition-paving-memory.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211901&gt;https://news.ycombinator.com/item?id=37211901&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Bun v1.0 launching 9/1</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://bun.sh/1.0</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://bun.sh/1.0&gt;https://bun.sh/1.0&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211900&gt;https://news.ycombinator.com/item?id=37211900&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>New form of severe childhood obesity with high mortality discovered</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://www.imperial.ac.uk/news/246874/new-form-severe-childhood-obesity-with/</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.imperial.ac.uk/news/246874/new-form-severe-childhood-obesity-with/&gt;https://www.imperial.ac.uk/news/246874/new-form-severe-childhood-obesity-with/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211894&gt;https://news.ycombinator.com/item?id=37211894&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Take the Money and Run?</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37211892</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;I work at Big Tech Co, and I recently had my role eliminated.&lt;p&gt;I was offered 90 days to find a new role within the company, and if I can't find one I get 6 months severance.&lt;p&gt;There have been multiple rounds of layoffs at my company, so it's unclear when they would stop doing them (if ever).&lt;p&gt;Unsure if I should spend the next 90 days doing interview prep and take the severance, or try to find an internal position and hope I don't get eliminated again (with a worse severance).&lt;p&gt;I think I might already have an internal position lined up FWIW, but for anyone else who has gone through layoffs:&lt;p&gt;Should I take the severance no matter what (i.e. it's only going to get worse here)?&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211892&gt;https://news.ycombinator.com/item?id=37211892&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 3&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Palm Springs is cut off and 911, Storm Hilary soaks from coast to desert</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://www.dailymail.co.uk/news/article-12428701/Tropical-Storm-Hilary-soaks-coast-desert-barrels-Nevada-25-million-people-flood-warnings-Palm-Springs-submerged-cut-911-desperate-Californians-climb-trees-escape-mudslides.html</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.dailymail.co.uk/news/article-12428701/Tropical-Storm-Hilary-soaks-coast-desert-barrels-Nevada-25-million-people-flood-warnings-Palm-Springs-submerged-cut-911-desperate-Californians-climb-trees-escape-mudslides.html&gt;https://www.dailymail.co.uk/news/article-12428701/Tropical-Storm-Hilary-soaks-coast-desert-barrels-Nevada-25-million-people-flood-warnings-Palm-Springs-submerged-cut-911-desperate-Californians-climb-trees-escape-mudslides.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211891&gt;https://news.ycombinator.com/item?id=37211891&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>James Baldwin’s Advice on Writing</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://www.themarginalian.org/2016/02/08/james-baldwin-advice-on-writing/</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.themarginalian.org/2016/02/08/james-baldwin-advice-on-writing/&gt;https://www.themarginalian.org/2016/02/08/james-baldwin-advice-on-writing/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211888&gt;https://news.ycombinator.com/item?id=37211888&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Detection of Over-Massive Black Hole Galaxy: UHZ1 – Evidence of Direct Collapse?</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2308.02654</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://arxiv.org/abs/2308.02654&gt;https://arxiv.org/abs/2308.02654&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212425&gt;https://news.ycombinator.com/item?id=37212425&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>STIRred and Shaken</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>https://computer.rip/2023-08-07-STIRred-AND-SHAKEN.html</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://computer.rip/2023-08-07-STIRred-AND-SHAKEN.html&gt;https://computer.rip/2023-08-07-STIRred-AND-SHAKEN.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212422&gt;https://news.ycombinator.com/item?id=37212422&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Beyond Surface Statistics: Scene Representations in a Latent Diffusion Model</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://old.reddit.com/r/MachineLearning/comments/15wvfx6/r_beyond_surface_statistics_scene_representations/</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://old.reddit.com/r/MachineLearning/comments/15wvfx6/r_beyond_surface_statistics_scene_representations/&gt;https://old.reddit.com/r/MachineLearning/comments/15wvfx6/r_beyond_surface_statistics_scene_representations/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212415&gt;https://news.ycombinator.com/item?id=37212415&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>An Introduction to Exploit Reliability</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>https://blog.isosceles.com/an-introduction-to-exploit-reliability/</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://blog.isosceles.com/an-introduction-to-exploit-reliability/&gt;https://blog.isosceles.com/an-introduction-to-exploit-reliability/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212411&gt;https://news.ycombinator.com/item?id=37212411&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>536 Puzzles and Curious Problems</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://archive.org/details/536PuzzlesCuriousProblems</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://archive.org/details/536PuzzlesCuriousProblems&gt;https://archive.org/details/536PuzzlesCuriousProblems&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212410&gt;https://news.ycombinator.com/item?id=37212410&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Show HN: My husband quit his job to build a new social audio app with Flutter</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://www.bubblic.app/</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Wife of an app-builder here.&lt;p&gt;My husband quit his full time job at Apple to work full-time last year on a new social audio app where you are anonymous and there are no videos or images - people can only connect with their voice.&lt;p&gt;The app has been up for just less than 2 months, and it was incredible to see 300 users from all around the world leave voice messages of support for each other.&lt;p&gt;It definitely restored my faith in humanity, so much so that I decided to jump on board as a co-founder :)&lt;p&gt;We are on a mission to end loneliness that is gripping our world today, and we hope you also come onboard to get or offer support, or even just to make authentic connections with people around the world.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212381&gt;https://news.ycombinator.com/item?id=37212381&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 4&lt;/p&gt;
+&lt;p&gt;# Comments: 3&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2023 MIDI Innovation Awards Finalists</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://www.midi.org/midi-articles/announcing-the-finalists-in-the-2023-midi-innovation-awards</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.midi.org/midi-articles/announcing-the-finalists-in-the-2023-midi-innovation-awards&gt;https://www.midi.org/midi-articles/announcing-the-finalists-in-the-2023-midi-innovation-awards&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212377&gt;https://news.ycombinator.com/item?id=37212377&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>LionGlass: New Type of Glass That’s Greener and 10x More Damage Resistant</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://scitechdaily.com/lionglass-new-type-of-glass-thats-greener-and-10x-more-damage-resistant/</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://scitechdaily.com/lionglass-new-type-of-glass-thats-greener-and-10x-more-damage-resistant/&gt;https://scitechdaily.com/lionglass-new-type-of-glass-thats-greener-and-10x-more-damage-resistant/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212365&gt;https://news.ycombinator.com/item?id=37212365&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Arduino Nano ESP32 becomes a ultra low-powered, pocket-sized Linux PC</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://blog.arduino.cc/2023/08/16/arduino-nano-esp32-becomes-a-ultra-low-powered-pocket-sized-linux-pc/</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://blog.arduino.cc/2023/08/16/arduino-nano-esp32-becomes-a-ultra-low-powered-pocket-sized-linux-pc/&gt;https://blog.arduino.cc/2023/08/16/arduino-nano-esp32-becomes-a-ultra-low-powered-pocket-sized-linux-pc/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212352&gt;https://news.ycombinator.com/item?id=37212352&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Military considers allowing calculators on entrance exams as recruiting slumps</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>https://www.military.com/daily-news/2023/08/18/pentagon-set-allow-calculator-use-military-entrance-exam-recruiting-slumps.html</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.military.com/daily-news/2023/08/18/pentagon-set-allow-calculator-use-military-entrance-exam-recruiting-slumps.html&gt;https://www.military.com/daily-news/2023/08/18/pentagon-set-allow-calculator-use-military-entrance-exam-recruiting-slumps.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212336&gt;https://news.ycombinator.com/item?id=37212336&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 2&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>‘I Was Shadowbanned:’ How Hinge's Algorithm Decides Who You Date</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>https://gizmodo.com/hinge-dating-app-algorithm-1850744140</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://gizmodo.com/hinge-dating-app-algorithm-1850744140&gt;https://gizmodo.com/hinge-dating-app-algorithm-1850744140&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212318&gt;https://news.ycombinator.com/item?id=37212318&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 3&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>New York and California Each Lost $1T When Financial Firms Moved South</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>https://www.bloomberg.com/graphics/2023-asset-management-relocation-wall-street-south/</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.bloomberg.com/graphics/2023-asset-management-relocation-wall-street-south/&gt;https://www.bloomberg.com/graphics/2023-asset-management-relocation-wall-street-south/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212301&gt;https://news.ycombinator.com/item?id=37212301&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Multiplayer Wordle in bash and Htmx and Fly.io</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://twitter.com/badcop_/status/1693636066337538218</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/badcop_/status/1693636066337538218&gt;https://twitter.com/badcop_/status/1693636066337538218&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212296&gt;https://news.ycombinator.com/item?id=37212296&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Noria: Dynamic, partially-stateful data-flow for high-performance web apps [pdf]</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://pdos.csail.mit.edu/papers/noria:osdi18.pdf</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://pdos.csail.mit.edu/papers/noria:osdi18.pdf&gt;https://pdos.csail.mit.edu/papers/noria:osdi18.pdf&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212277&gt;https://news.ycombinator.com/item?id=37212277&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>When I have a slower publishing cadence my blog grows faster</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://www.henrikkarlsson.xyz/p/effort-pieces</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.henrikkarlsson.xyz/p/effort-pieces&gt;https://www.henrikkarlsson.xyz/p/effort-pieces&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212266&gt;https://news.ycombinator.com/item?id=37212266&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Why I write about gender: The issue affects us all</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://thecritic.co.uk/why-i-write-about-gender/</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://thecritic.co.uk/why-i-write-about-gender/&gt;https://thecritic.co.uk/why-i-write-about-gender/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212265&gt;https://news.ycombinator.com/item?id=37212265&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>A16Z Crypto Startup School 2023</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/playlist?list=PLjQ9HCQMu_8ywq3VUso7i_-TOx6RKXQeQ</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.youtube.com/playlist?list=PLjQ9HCQMu_8ywq3VUso7i_-TOx6RKXQeQ&gt;https://www.youtube.com/playlist?list=PLjQ9HCQMu_8ywq3VUso7i_-TOx6RKXQeQ&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212227&gt;https://news.ycombinator.com/item?id=37212227&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Website best practices (mostly security related)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>https://brntn.me/blog/website-best-practices/</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://brntn.me/blog/website-best-practices/&gt;https://brntn.me/blog/website-best-practices/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212222&gt;https://news.ycombinator.com/item?id=37212222&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>FYI – Lemonade's design leads opened a design agency</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>https://superfine.studio/</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://superfine.studio/&gt;https://superfine.studio/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212196&gt;https://news.ycombinator.com/item?id=37212196&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>On VR, AI Alignment, Robotics, and Games</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://quaxar.substack.com/p/ai-web3-vrar-the-coming-trifecta-356</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://quaxar.substack.com/p/ai-web3-vrar-the-coming-trifecta-356&gt;https://quaxar.substack.com/p/ai-web3-vrar-the-coming-trifecta-356&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212194&gt;https://news.ycombinator.com/item?id=37212194&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Modernizing Compiler Design for Carbon Toolchain – Chandler Carruth [video]</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ZI198eFghJk</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.youtube.com/watch?v=ZI198eFghJk&gt;https://www.youtube.com/watch?v=ZI198eFghJk&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212810&gt;https://news.ycombinator.com/item?id=37212810&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Geiko wigmakers in Kyoto bring modernity to an age-old art</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://www.wallpaper.com/fashion-beauty/hair/japanese-hair-art-geiko-wigmakers-kyoto</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.wallpaper.com/fashion-beauty/hair/japanese-hair-art-geiko-wigmakers-kyoto&gt;https://www.wallpaper.com/fashion-beauty/hair/japanese-hair-art-geiko-wigmakers-kyoto&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212796&gt;https://news.ycombinator.com/item?id=37212796&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>A license to trust: Can you rely on 'open source' companies?</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>https://www.theregister.com/2023/08/18/opinion_column/</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theregister.com/2023/08/18/opinion_column/&gt;https://www.theregister.com/2023/08/18/opinion_column/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212787&gt;https://news.ycombinator.com/item?id=37212787&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Zero-degree line at record height above Switzerland as heat and fire hit Europe</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>https://www.theguardian.com/environment/2023/aug/21/zero-degree-line-record-height-switzerland-heatwave-wildfire-europe</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theguardian.com/environment/2023/aug/21/zero-degree-line-record-height-switzerland-heatwave-wildfire-europe&gt;https://www.theguardian.com/environment/2023/aug/21/zero-degree-line-record-height-switzerland-heatwave-wildfire-europe&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212781&gt;https://news.ycombinator.com/item?id=37212781&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Miss a loan payment? Your car will shut down</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>https://www.autonews.com/technology/automakers-may-develop-ability-shut-down-your-car</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.autonews.com/technology/automakers-may-develop-ability-shut-down-your-car&gt;https://www.autonews.com/technology/automakers-may-develop-ability-shut-down-your-car&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212780&gt;https://news.ycombinator.com/item?id=37212780&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Chirality (Chemistry)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Chirality_(chemistry)</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://en.wikipedia.org/wiki/Chirality_(chemistry)&gt;https://en.wikipedia.org/wiki/Chirality_(chemistry)&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212778&gt;https://news.ycombinator.com/item?id=37212778&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Scriptable: Automate iOS Using JavaScript</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>https://scriptable.app/</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://scriptable.app/&gt;https://scriptable.app/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212776&gt;https://news.ycombinator.com/item?id=37212776&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Chess as a case study in hidden capabilities in ChatGPT</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>https://www.lesswrong.com/posts/F6vH6fr8ngo7csDdf/chess-as-a-case-study-in-hidden-capabilities-in-chatgpt</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.lesswrong.com/posts/F6vH6fr8ngo7csDdf/chess-as-a-case-study-in-hidden-capabilities-in-chatgpt&gt;https://www.lesswrong.com/posts/F6vH6fr8ngo7csDdf/chess-as-a-case-study-in-hidden-capabilities-in-chatgpt&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212774&gt;https://news.ycombinator.com/item?id=37212774&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Fuzzing for CPS Mutation Testing</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2308.07949</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://arxiv.org/abs/2308.07949&gt;https://arxiv.org/abs/2308.07949&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212771&gt;https://news.ycombinator.com/item?id=37212771&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Page.js: Tiny ~1200 byte Express-inspired client-side router</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>https://visionmedia.github.io/page.js/</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://visionmedia.github.io/page.js/&gt;https://visionmedia.github.io/page.js/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212770&gt;https://news.ycombinator.com/item?id=37212770&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Made a Tool to Help Calculate LLM Hosting Costs. LLM Cost Calculator Tool</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>https://llmcalculator.woyera.com/</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://llmcalculator.woyera.com/&gt;https://llmcalculator.woyera.com/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212752&gt;https://news.ycombinator.com/item?id=37212752&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Ask HN: Feeling disillusioned. Am I overly moralizing Tech?</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>https://news.ycombinator.com/item?id=37212733</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Tech Twitter is ablaze with hype around a new crypto app that lets you monetize relationships. Much of the excitement by builders &amp; VCs explicitly hand-waves away the obvious and self-admitted ponzinomics for the sake of social experimentation.&lt;p&gt;Watching this play out has peaked my long emerging disillusionment with Tech. When billions are poured into subsidizing the engineering of addiction under the guise of growth, when VR is being pushed as a way to unironically help us connect more immersively, when the crypto intelligentsia continues to wantonly deploy financial mechanisms that almost universally enrich insiders under the guise of economic liberation, and everyone seems obsessed with joining the club at all costs… how are you meant to remain hopeful for tech’s societal impact?&lt;p&gt;Or am I just overly moralizing this?&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212733&gt;https://news.ycombinator.com/item?id=37212733&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>OpenVoiceOS: Open-source voice AI platform</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>https://openvoiceos.org/</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://openvoiceos.org/&gt;https://openvoiceos.org/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212730&gt;https://news.ycombinator.com/item?id=37212730&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Soylent Green</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Soylent_Green</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://en.wikipedia.org/wiki/Soylent_Green&gt;https://en.wikipedia.org/wiki/Soylent_Green&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212721&gt;https://news.ycombinator.com/item?id=37212721&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Dentistry, X-rays and Morecambe and Wise (2018)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>https://www.qmul.ac.uk/media/news/2018/smd/dentistry-x-rays-and-morecambe-and-wise.html</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.qmul.ac.uk/media/news/2018/smd/dentistry-x-rays-and-morecambe-and-wise.html&gt;https://www.qmul.ac.uk/media/news/2018/smd/dentistry-x-rays-and-morecambe-and-wise.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212716&gt;https://news.ycombinator.com/item?id=37212716&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Lyrebird the Linux voice changer now supports PipeWire</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>https://github.com/lyrebird-voice-changer/lyrebird/releases/tag/v1.2.0</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/lyrebird-voice-changer/lyrebird/releases/tag/v1.2.0&gt;https://github.com/lyrebird-voice-changer/lyrebird/releases/tag/v1.2.0&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212711&gt;https://news.ycombinator.com/item?id=37212711&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 2&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Trying to be human, and other mistakes</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>https://jakeseliger.com/2023/08/19/trying-to-be-human-and-other-mistakes/</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://jakeseliger.com/2023/08/19/trying-to-be-human-and-other-mistakes/&gt;https://jakeseliger.com/2023/08/19/trying-to-be-human-and-other-mistakes/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212704&gt;https://news.ycombinator.com/item?id=37212704&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Painboard: Automatically summarize, group and sort customer feedback</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>https://usepainboard.com/</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://usepainboard.com/&gt;https://usepainboard.com/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212693&gt;https://news.ycombinator.com/item?id=37212693&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>The Impossible “Literacy” Test Louisiana Gave Black Voters in the 1960s (2013)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>https://slate.com/human-interest/2013/06/voting-rights-and-the-supreme-court-the-impossible-literacy-test-louisiana-used-to-give-black-voters.html</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://slate.com/human-interest/2013/06/voting-rights-and-the-supreme-court-the-impossible-literacy-test-louisiana-used-to-give-black-voters.html&gt;https://slate.com/human-interest/2013/06/voting-rights-and-the-supreme-court-the-impossible-literacy-test-louisiana-used-to-give-black-voters.html&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212679&gt;https://news.ycombinator.com/item?id=37212679&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Hacker News</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Fearlessly Handling BigKeys with Dragonfly</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>https://www.dragonflydb.io/blog/fearlessly-handling-bigkeys-with-dragonfly</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Article URL: &lt;a href=https://www.dragonflydb.io/blog/fearlessly-handling-bigkeys-with-dragonfly&gt;https://www.dragonflydb.io/blog/fearlessly-handling-bigkeys-with-dragonfly&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212677&gt;https://news.ycombinator.com/item?id=37212677&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Points: 1&lt;/p&gt;
+&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/hackernews/Hacker_News.xlsx
+++ b/testing/hackernews/Hacker_News.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E350"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8552,2411 +8552,6 @@
         </is>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>First K239 Chunmoo MLRS Rckts/Missile Launcher Arrive in Poland from South Korea</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>https://www.armyrecognition.com/defense_news_august_2023_global_security_army_industry/first_k239_chunmoo_mlrs_rockets/missile_launcher_arrive_in_poland_from_south_korea.html</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.armyrecognition.com/defense_news_august_2023_global_security_army_industry/first_k239_chunmoo_mlrs_rockets/missile_launcher_arrive_in_poland_from_south_korea.html&gt;https://www.armyrecognition.com/defense_news_august_2023_global_security_army_industry/first_k239_chunmoo_mlrs_rockets/missile_launcher_arrive_in_poland_from_south_korea.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211807&gt;https://news.ycombinator.com/item?id=37211807&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Hunchly Team Releases 6 Years of Tor Crawls</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>https://www.dailydarkweb.com</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.dailydarkweb.com&gt;https://www.dailydarkweb.com&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211802&gt;https://news.ycombinator.com/item?id=37211802&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Poll: Which distro do you use? (2023)</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>https://news.ycombinator.com/item?id=37211765</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;You can upvote several distros if you use them all regularly. The list of distros mostly comes from a recent HN submission: https://news.ycombinator.com/item?id=36838712&lt;/p&gt;
-&lt;hr /&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211765&gt;https://news.ycombinator.com/item?id=37211765&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Why SF’s Drug Policies Fail vs. European Medication Assisted Treatment Programs</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>https://twitter.com/atdrummond/status/1681304084987641858?s=46&amp;t=ngPBiurLOQ-sRLGLCk2isA</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/atdrummond/status/1681304084987641858?s=46&amp;amp;t=ngPBiurLOQ-sRLGLCk2isA&gt;https://twitter.com/atdrummond/status/1681304084987641858?s=46&amp;amp;t=ngPBiurLOQ-sRLGLCk2isA&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211759&gt;https://news.ycombinator.com/item?id=37211759&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 2&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Show HN: Walk – Terminal Navigator</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>https://github.com/antonmedv/walk</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/antonmedv/walk&gt;https://github.com/antonmedv/walk&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211708&gt;https://news.ycombinator.com/item?id=37211708&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>EASA AMC 20-193 Use of multi-core processors [pdf]</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>https://www.easa.europa.eu/sites/default/files/dfu/annex_i_to_ed_decision_2022-001-r_amc_20-193_use_of_multi-core_processors_mcps.pdf</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.easa.europa.eu/sites/default/files/dfu/annex_i_to_ed_decision_2022-001-r_amc_20-193_use_of_multi-core_processors_mcps.pdf&gt;https://www.easa.europa.eu/sites/default/files/dfu/annex_i_to_ed_decision_2022-001-r_amc_20-193_use_of_multi-core_processors_mcps.pdf&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211707&gt;https://news.ycombinator.com/item?id=37211707&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Namecheap to increase .COM and .XYZ prices</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>https://www.namecheap.com/blog/upcoming-com-and-xyz-domain-price-increase/</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.namecheap.com/blog/upcoming-com-and-xyz-domain-price-increase/&gt;https://www.namecheap.com/blog/upcoming-com-and-xyz-domain-price-increase/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211675&gt;https://news.ycombinator.com/item?id=37211675&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 9&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Solar Greenhouses Generate Electricity and Grow Crops at the Same Time</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>https://www.ecosnippets.com/alternative-energy/solar-greenhouses-generate-electricity/</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.ecosnippets.com/alternative-energy/solar-greenhouses-generate-electricity/&gt;https://www.ecosnippets.com/alternative-energy/solar-greenhouses-generate-electricity/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211662&gt;https://news.ycombinator.com/item?id=37211662&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Exclusive Premiere of Futurist Gerd Leonhard's New Film on AI and Humanity [video]</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=mEr9MDyMfKc</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.youtube.com/watch?v=mEr9MDyMfKc&gt;https://www.youtube.com/watch?v=mEr9MDyMfKc&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211660&gt;https://news.ycombinator.com/item?id=37211660&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>The broad set of computer science problems faced at cloud database companies</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>https://davidgomes.com/the-broad-set-of-computer-science-problems-faced-at-cloud-database-companies/</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://davidgomes.com/the-broad-set-of-computer-science-problems-faced-at-cloud-database-companies/&gt;https://davidgomes.com/the-broad-set-of-computer-science-problems-faced-at-cloud-database-companies/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211642&gt;https://news.ycombinator.com/item?id=37211642&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Sweetgreen Hires Former Chipotle Executives, Readies Mid-America Push</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>https://www.wsj.com/articles/sweetgreen-hires-former-chipotle-executives-readies-mid-america-push-e33bb956</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.wsj.com/articles/sweetgreen-hires-former-chipotle-executives-readies-mid-america-push-e33bb956&gt;https://www.wsj.com/articles/sweetgreen-hires-former-chipotle-executives-readies-mid-america-push-e33bb956&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211627&gt;https://news.ycombinator.com/item?id=37211627&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>The bulldozer as a symbol of state power – and how Gandhi warned against it</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>https://www.newslaundry.com/2023/08/21/the-bulldozer-as-a-symbol-of-state-power-and-how-gandhi-warned-against-it</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.newslaundry.com/2023/08/21/the-bulldozer-as-a-symbol-of-state-power-and-how-gandhi-warned-against-it&gt;https://www.newslaundry.com/2023/08/21/the-bulldozer-as-a-symbol-of-state-power-and-how-gandhi-warned-against-it&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211610&gt;https://news.ycombinator.com/item?id=37211610&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Want to have your genes tested? It might be genetic</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>https://arstechnica.com/science/2023/08/genetics-makes-some-people-more-likely-to-participate-in-genetic-studies/</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://arstechnica.com/science/2023/08/genetics-makes-some-people-more-likely-to-participate-in-genetic-studies/&gt;https://arstechnica.com/science/2023/08/genetics-makes-some-people-more-likely-to-participate-in-genetic-studies/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211576&gt;https://news.ycombinator.com/item?id=37211576&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Steven Wolfram on AI Alignment</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>https://www.lesswrong.com/posts/osPFESHQKLa2X3adb/steven-wolfram-on-ai-alignment</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.lesswrong.com/posts/osPFESHQKLa2X3adb/steven-wolfram-on-ai-alignment&gt;https://www.lesswrong.com/posts/osPFESHQKLa2X3adb/steven-wolfram-on-ai-alignment&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211574&gt;https://news.ycombinator.com/item?id=37211574&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>MacLynx beta 5: UTF-8, pull-down menus and more dialogue boxes</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>http://oldvcr.blogspot.com/2023/08/maclynx-beta-5-utf-8-pull-down-menus.html</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=http://oldvcr.blogspot.com/2023/08/maclynx-beta-5-utf-8-pull-down-menus.html&gt;http://oldvcr.blogspot.com/2023/08/maclynx-beta-5-utf-8-pull-down-menus.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211542&gt;https://news.ycombinator.com/item?id=37211542&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 6&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Ancient Japanese Islanders Create Signature Skull Shape by Molding Babies’ Heads</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>https://www.smithsonianmag.com/smart-news/these-ancient-japanese-islanders-created-a-signature-skull-shape-by-molding-babies-heads-180982763/</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.smithsonianmag.com/smart-news/these-ancient-japanese-islanders-created-a-signature-skull-shape-by-molding-babies-heads-180982763/&gt;https://www.smithsonianmag.com/smart-news/these-ancient-japanese-islanders-created-a-signature-skull-shape-by-molding-babies-heads-180982763/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211541&gt;https://news.ycombinator.com/item?id=37211541&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>I Made Stable Diffusion XL Smarter by Finetuning It on Bad AI-Generated Images</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>https://minimaxir.com/2023/08/stable-diffusion-xl-wrong/</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://minimaxir.com/2023/08/stable-diffusion-xl-wrong/&gt;https://minimaxir.com/2023/08/stable-diffusion-xl-wrong/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211519&gt;https://news.ycombinator.com/item?id=37211519&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 6&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Pentagon awards $1.5B to Lockheed Martin, Northrop Grumman for comms satellites</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>https://www.cnbc.com/2023/08/21/pentagon-awards-1point5-billion-to-lockheed-martin-northrop-grumman.html</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.cnbc.com/2023/08/21/pentagon-awards-1point5-billion-to-lockheed-martin-northrop-grumman.html&gt;https://www.cnbc.com/2023/08/21/pentagon-awards-1point5-billion-to-lockheed-martin-northrop-grumman.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211505&gt;https://news.ycombinator.com/item?id=37211505&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>1OPS: One Operation per Statement</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>https://blog.pwkf.org/2023/08/17/one-sloc.html</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://blog.pwkf.org/2023/08/17/one-sloc.html&gt;https://blog.pwkf.org/2023/08/17/one-sloc.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211492&gt;https://news.ycombinator.com/item?id=37211492&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Toy Models of Superposition</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>https://transformer-circuits.pub/2022/toy_model/index.html</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://transformer-circuits.pub/2022/toy_model/index.html&gt;https://transformer-circuits.pub/2022/toy_model/index.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211482&gt;https://news.ycombinator.com/item?id=37211482&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Fischer–Tropsch Process</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Fischer%E2%80%93Tropsch_process</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://en.wikipedia.org/wiki/Fischer%E2%80%93Tropsch_process&gt;https://en.wikipedia.org/wiki/Fischer%E2%80%93Tropsch_process&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212009&gt;https://news.ycombinator.com/item?id=37212009&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Movie Theaters Offering $4 Tickets on Aug. 27 for 2nd Annual National Cinema Day</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>https://www.hollywoodreporter.com/movies/movie-news/movie-theaters-4-dollar-tickets-august-27-1235571034/</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.hollywoodreporter.com/movies/movie-news/movie-theaters-4-dollar-tickets-august-27-1235571034/&gt;https://www.hollywoodreporter.com/movies/movie-news/movie-theaters-4-dollar-tickets-august-27-1235571034/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212008&gt;https://news.ycombinator.com/item?id=37212008&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Medicine without doctors? State laws are changing who treats patients</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>https://www.washingtonpost.com/health/2023/08/20/nurse-doctor-scope-medical-titles/</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.washingtonpost.com/health/2023/08/20/nurse-doctor-scope-medical-titles/&gt;https://www.washingtonpost.com/health/2023/08/20/nurse-doctor-scope-medical-titles/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211986&gt;https://news.ycombinator.com/item?id=37211986&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Venture capital funds are mostly just wasting their time and your money</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>https://www.ft.com/content/2099d3c1-65ba-4c20-a50c-f730fd258f42</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.ft.com/content/2099d3c1-65ba-4c20-a50c-f730fd258f42&gt;https://www.ft.com/content/2099d3c1-65ba-4c20-a50c-f730fd258f42&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211981&gt;https://news.ycombinator.com/item?id=37211981&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Zach Coelius – How SF's drug problem got out of control</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>https://twitter.com/zachcoelius/status/1693369842282492340</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/zachcoelius/status/1693369842282492340&gt;https://twitter.com/zachcoelius/status/1693369842282492340&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211977&gt;https://news.ycombinator.com/item?id=37211977&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Open Sourcing Pocket Size Fund</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>https://twitter.com/forstmeier/status/1693662998420766974</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/forstmeier/status/1693662998420766974&gt;https://twitter.com/forstmeier/status/1693662998420766974&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211956&gt;https://news.ycombinator.com/item?id=37211956&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>An Improved Unix Terminal – Demo App for VanJS</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>https://github.com/vanjs-org/van/tree/main/demo/terminal</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/vanjs-org/van/tree/main/demo/terminal&gt;https://github.com/vanjs-org/van/tree/main/demo/terminal&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211949&gt;https://news.ycombinator.com/item?id=37211949&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>The First Real Images of Mercury – What We Found? [video]</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=X4sZd41ZRaQ</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.youtube.com/watch?v=X4sZd41ZRaQ&gt;https://www.youtube.com/watch?v=X4sZd41ZRaQ&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211937&gt;https://news.ycombinator.com/item?id=37211937&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Build a Business, Not an Audience</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>https://jakobgreenfeld.com/build_an_audience</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://jakobgreenfeld.com/build_an_audience&gt;https://jakobgreenfeld.com/build_an_audience&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211933&gt;https://news.ycombinator.com/item?id=37211933&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 3&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Pocketbook announces their first e-note, the Pocketbook InkPad X Pro</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>https://goodereader.com/blog/electronic-readers/pocketbook-announces-their-first-e-note-the-pocketbook-inkpad-x-pro</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://goodereader.com/blog/electronic-readers/pocketbook-announces-their-first-e-note-the-pocketbook-inkpad-x-pro&gt;https://goodereader.com/blog/electronic-readers/pocketbook-announces-their-first-e-note-the-pocketbook-inkpad-x-pro&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211924&gt;https://news.ycombinator.com/item?id=37211924&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>PMs and Analysts: Your Biggest Challenge in Product Analytics?</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>https://news.ycombinator.com/item?id=37211907</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Hi HN community,&lt;p&gt;I'm diving deep into the realm of product analytics and am curious about the primary challenges you face in this area. Is there a specific tool you wish existed? Or a particular feature in current tools that's missing or not implemented well?&lt;p&gt;I'd appreciate any insights or stories you might want to share. My goal is to better understand the pain points and see if there's a potential solution I could build or improve upon.&lt;/p&gt;
-&lt;hr /&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211907&gt;https://news.ycombinator.com/item?id=37211907&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>The little-known shipwreck that inspired Bram Stoker’s ‘Dracula’</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>https://www.nationalgeographic.com/history/article/last-voyage-of-the-demeter-dracula-dmitry</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.nationalgeographic.com/history/article/last-voyage-of-the-demeter-dracula-dmitry&gt;https://www.nationalgeographic.com/history/article/last-voyage-of-the-demeter-dracula-dmitry&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211906&gt;https://news.ycombinator.com/item?id=37211906&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>What is ABI and what should WG21 do about it? (2020) [pdf]</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>https://www.open-std.org/jtc1/sc22/wg21/docs/papers/2020/p2028r0.pdf</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.open-std.org/jtc1/sc22/wg21/docs/papers/2020/p2028r0.pdf&gt;https://www.open-std.org/jtc1/sc22/wg21/docs/papers/2020/p2028r0.pdf&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211904&gt;https://news.ycombinator.com/item?id=37211904&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>As China Falls into Deflation, the Mood Turns Dark</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>https://www.nytimes.com/2023/08/21/business/china-deflation.html</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.nytimes.com/2023/08/21/business/china-deflation.html&gt;https://www.nytimes.com/2023/08/21/business/china-deflation.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211902&gt;https://news.ycombinator.com/item?id=37211902&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Unlocking mysteries of octopus cognition: Paving the way for memory research</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>https://phys.org/news/2023-08-mysteries-octopus-cognition-paving-memory.html</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://phys.org/news/2023-08-mysteries-octopus-cognition-paving-memory.html&gt;https://phys.org/news/2023-08-mysteries-octopus-cognition-paving-memory.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211901&gt;https://news.ycombinator.com/item?id=37211901&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Bun v1.0 launching 9/1</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>https://bun.sh/1.0</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://bun.sh/1.0&gt;https://bun.sh/1.0&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211900&gt;https://news.ycombinator.com/item?id=37211900&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>New form of severe childhood obesity with high mortality discovered</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>https://www.imperial.ac.uk/news/246874/new-form-severe-childhood-obesity-with/</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.imperial.ac.uk/news/246874/new-form-severe-childhood-obesity-with/&gt;https://www.imperial.ac.uk/news/246874/new-form-severe-childhood-obesity-with/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211894&gt;https://news.ycombinator.com/item?id=37211894&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Take the Money and Run?</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>https://news.ycombinator.com/item?id=37211892</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;I work at Big Tech Co, and I recently had my role eliminated.&lt;p&gt;I was offered 90 days to find a new role within the company, and if I can't find one I get 6 months severance.&lt;p&gt;There have been multiple rounds of layoffs at my company, so it's unclear when they would stop doing them (if ever).&lt;p&gt;Unsure if I should spend the next 90 days doing interview prep and take the severance, or try to find an internal position and hope I don't get eliminated again (with a worse severance).&lt;p&gt;I think I might already have an internal position lined up FWIW, but for anyone else who has gone through layoffs:&lt;p&gt;Should I take the severance no matter what (i.e. it's only going to get worse here)?&lt;/p&gt;
-&lt;hr /&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211892&gt;https://news.ycombinator.com/item?id=37211892&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 3&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Palm Springs is cut off and 911, Storm Hilary soaks from coast to desert</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>https://www.dailymail.co.uk/news/article-12428701/Tropical-Storm-Hilary-soaks-coast-desert-barrels-Nevada-25-million-people-flood-warnings-Palm-Springs-submerged-cut-911-desperate-Californians-climb-trees-escape-mudslides.html</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.dailymail.co.uk/news/article-12428701/Tropical-Storm-Hilary-soaks-coast-desert-barrels-Nevada-25-million-people-flood-warnings-Palm-Springs-submerged-cut-911-desperate-Californians-climb-trees-escape-mudslides.html&gt;https://www.dailymail.co.uk/news/article-12428701/Tropical-Storm-Hilary-soaks-coast-desert-barrels-Nevada-25-million-people-flood-warnings-Palm-Springs-submerged-cut-911-desperate-Californians-climb-trees-escape-mudslides.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211891&gt;https://news.ycombinator.com/item?id=37211891&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>James Baldwin’s Advice on Writing</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>https://www.themarginalian.org/2016/02/08/james-baldwin-advice-on-writing/</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.themarginalian.org/2016/02/08/james-baldwin-advice-on-writing/&gt;https://www.themarginalian.org/2016/02/08/james-baldwin-advice-on-writing/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37211888&gt;https://news.ycombinator.com/item?id=37211888&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Detection of Over-Massive Black Hole Galaxy: UHZ1 – Evidence of Direct Collapse?</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/abs/2308.02654</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://arxiv.org/abs/2308.02654&gt;https://arxiv.org/abs/2308.02654&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212425&gt;https://news.ycombinator.com/item?id=37212425&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>STIRred and Shaken</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>https://computer.rip/2023-08-07-STIRred-AND-SHAKEN.html</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://computer.rip/2023-08-07-STIRred-AND-SHAKEN.html&gt;https://computer.rip/2023-08-07-STIRred-AND-SHAKEN.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212422&gt;https://news.ycombinator.com/item?id=37212422&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Beyond Surface Statistics: Scene Representations in a Latent Diffusion Model</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>https://old.reddit.com/r/MachineLearning/comments/15wvfx6/r_beyond_surface_statistics_scene_representations/</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://old.reddit.com/r/MachineLearning/comments/15wvfx6/r_beyond_surface_statistics_scene_representations/&gt;https://old.reddit.com/r/MachineLearning/comments/15wvfx6/r_beyond_surface_statistics_scene_representations/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212415&gt;https://news.ycombinator.com/item?id=37212415&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>An Introduction to Exploit Reliability</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>https://blog.isosceles.com/an-introduction-to-exploit-reliability/</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://blog.isosceles.com/an-introduction-to-exploit-reliability/&gt;https://blog.isosceles.com/an-introduction-to-exploit-reliability/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212411&gt;https://news.ycombinator.com/item?id=37212411&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>536 Puzzles and Curious Problems</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>https://archive.org/details/536PuzzlesCuriousProblems</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://archive.org/details/536PuzzlesCuriousProblems&gt;https://archive.org/details/536PuzzlesCuriousProblems&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212410&gt;https://news.ycombinator.com/item?id=37212410&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Show HN: My husband quit his job to build a new social audio app with Flutter</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>https://www.bubblic.app/</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Wife of an app-builder here.&lt;p&gt;My husband quit his full time job at Apple to work full-time last year on a new social audio app where you are anonymous and there are no videos or images - people can only connect with their voice.&lt;p&gt;The app has been up for just less than 2 months, and it was incredible to see 300 users from all around the world leave voice messages of support for each other.&lt;p&gt;It definitely restored my faith in humanity, so much so that I decided to jump on board as a co-founder :)&lt;p&gt;We are on a mission to end loneliness that is gripping our world today, and we hope you also come onboard to get or offer support, or even just to make authentic connections with people around the world.&lt;/p&gt;
-&lt;hr /&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212381&gt;https://news.ycombinator.com/item?id=37212381&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 4&lt;/p&gt;
-&lt;p&gt;# Comments: 3&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>2023 MIDI Innovation Awards Finalists</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>https://www.midi.org/midi-articles/announcing-the-finalists-in-the-2023-midi-innovation-awards</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.midi.org/midi-articles/announcing-the-finalists-in-the-2023-midi-innovation-awards&gt;https://www.midi.org/midi-articles/announcing-the-finalists-in-the-2023-midi-innovation-awards&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212377&gt;https://news.ycombinator.com/item?id=37212377&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>LionGlass: New Type of Glass That’s Greener and 10x More Damage Resistant</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>https://scitechdaily.com/lionglass-new-type-of-glass-thats-greener-and-10x-more-damage-resistant/</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://scitechdaily.com/lionglass-new-type-of-glass-thats-greener-and-10x-more-damage-resistant/&gt;https://scitechdaily.com/lionglass-new-type-of-glass-thats-greener-and-10x-more-damage-resistant/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212365&gt;https://news.ycombinator.com/item?id=37212365&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Arduino Nano ESP32 becomes a ultra low-powered, pocket-sized Linux PC</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>https://blog.arduino.cc/2023/08/16/arduino-nano-esp32-becomes-a-ultra-low-powered-pocket-sized-linux-pc/</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://blog.arduino.cc/2023/08/16/arduino-nano-esp32-becomes-a-ultra-low-powered-pocket-sized-linux-pc/&gt;https://blog.arduino.cc/2023/08/16/arduino-nano-esp32-becomes-a-ultra-low-powered-pocket-sized-linux-pc/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212352&gt;https://news.ycombinator.com/item?id=37212352&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Military considers allowing calculators on entrance exams as recruiting slumps</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>https://www.military.com/daily-news/2023/08/18/pentagon-set-allow-calculator-use-military-entrance-exam-recruiting-slumps.html</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.military.com/daily-news/2023/08/18/pentagon-set-allow-calculator-use-military-entrance-exam-recruiting-slumps.html&gt;https://www.military.com/daily-news/2023/08/18/pentagon-set-allow-calculator-use-military-entrance-exam-recruiting-slumps.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212336&gt;https://news.ycombinator.com/item?id=37212336&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 2&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>‘I Was Shadowbanned:’ How Hinge's Algorithm Decides Who You Date</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>https://gizmodo.com/hinge-dating-app-algorithm-1850744140</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://gizmodo.com/hinge-dating-app-algorithm-1850744140&gt;https://gizmodo.com/hinge-dating-app-algorithm-1850744140&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212318&gt;https://news.ycombinator.com/item?id=37212318&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 3&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>New York and California Each Lost $1T When Financial Firms Moved South</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>https://www.bloomberg.com/graphics/2023-asset-management-relocation-wall-street-south/</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.bloomberg.com/graphics/2023-asset-management-relocation-wall-street-south/&gt;https://www.bloomberg.com/graphics/2023-asset-management-relocation-wall-street-south/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212301&gt;https://news.ycombinator.com/item?id=37212301&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Multiplayer Wordle in bash and Htmx and Fly.io</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>https://twitter.com/badcop_/status/1693636066337538218</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://twitter.com/badcop_/status/1693636066337538218&gt;https://twitter.com/badcop_/status/1693636066337538218&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212296&gt;https://news.ycombinator.com/item?id=37212296&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Noria: Dynamic, partially-stateful data-flow for high-performance web apps [pdf]</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>https://pdos.csail.mit.edu/papers/noria:osdi18.pdf</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://pdos.csail.mit.edu/papers/noria:osdi18.pdf&gt;https://pdos.csail.mit.edu/papers/noria:osdi18.pdf&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212277&gt;https://news.ycombinator.com/item?id=37212277&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>When I have a slower publishing cadence my blog grows faster</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>https://www.henrikkarlsson.xyz/p/effort-pieces</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.henrikkarlsson.xyz/p/effort-pieces&gt;https://www.henrikkarlsson.xyz/p/effort-pieces&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212266&gt;https://news.ycombinator.com/item?id=37212266&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Why I write about gender: The issue affects us all</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>https://thecritic.co.uk/why-i-write-about-gender/</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://thecritic.co.uk/why-i-write-about-gender/&gt;https://thecritic.co.uk/why-i-write-about-gender/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212265&gt;https://news.ycombinator.com/item?id=37212265&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>A16Z Crypto Startup School 2023</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/playlist?list=PLjQ9HCQMu_8ywq3VUso7i_-TOx6RKXQeQ</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.youtube.com/playlist?list=PLjQ9HCQMu_8ywq3VUso7i_-TOx6RKXQeQ&gt;https://www.youtube.com/playlist?list=PLjQ9HCQMu_8ywq3VUso7i_-TOx6RKXQeQ&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212227&gt;https://news.ycombinator.com/item?id=37212227&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Website best practices (mostly security related)</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>https://brntn.me/blog/website-best-practices/</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://brntn.me/blog/website-best-practices/&gt;https://brntn.me/blog/website-best-practices/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212222&gt;https://news.ycombinator.com/item?id=37212222&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>FYI – Lemonade's design leads opened a design agency</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>https://superfine.studio/</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://superfine.studio/&gt;https://superfine.studio/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212196&gt;https://news.ycombinator.com/item?id=37212196&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>On VR, AI Alignment, Robotics, and Games</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>https://quaxar.substack.com/p/ai-web3-vrar-the-coming-trifecta-356</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://quaxar.substack.com/p/ai-web3-vrar-the-coming-trifecta-356&gt;https://quaxar.substack.com/p/ai-web3-vrar-the-coming-trifecta-356&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212194&gt;https://news.ycombinator.com/item?id=37212194&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Modernizing Compiler Design for Carbon Toolchain – Chandler Carruth [video]</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ZI198eFghJk</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.youtube.com/watch?v=ZI198eFghJk&gt;https://www.youtube.com/watch?v=ZI198eFghJk&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212810&gt;https://news.ycombinator.com/item?id=37212810&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>Geiko wigmakers in Kyoto bring modernity to an age-old art</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>https://www.wallpaper.com/fashion-beauty/hair/japanese-hair-art-geiko-wigmakers-kyoto</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.wallpaper.com/fashion-beauty/hair/japanese-hair-art-geiko-wigmakers-kyoto&gt;https://www.wallpaper.com/fashion-beauty/hair/japanese-hair-art-geiko-wigmakers-kyoto&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212796&gt;https://news.ycombinator.com/item?id=37212796&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>A license to trust: Can you rely on 'open source' companies?</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>https://www.theregister.com/2023/08/18/opinion_column/</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theregister.com/2023/08/18/opinion_column/&gt;https://www.theregister.com/2023/08/18/opinion_column/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212787&gt;https://news.ycombinator.com/item?id=37212787&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Zero-degree line at record height above Switzerland as heat and fire hit Europe</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>https://www.theguardian.com/environment/2023/aug/21/zero-degree-line-record-height-switzerland-heatwave-wildfire-europe</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.theguardian.com/environment/2023/aug/21/zero-degree-line-record-height-switzerland-heatwave-wildfire-europe&gt;https://www.theguardian.com/environment/2023/aug/21/zero-degree-line-record-height-switzerland-heatwave-wildfire-europe&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212781&gt;https://news.ycombinator.com/item?id=37212781&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Miss a loan payment? Your car will shut down</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>https://www.autonews.com/technology/automakers-may-develop-ability-shut-down-your-car</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.autonews.com/technology/automakers-may-develop-ability-shut-down-your-car&gt;https://www.autonews.com/technology/automakers-may-develop-ability-shut-down-your-car&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212780&gt;https://news.ycombinator.com/item?id=37212780&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Chirality (Chemistry)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Chirality_(chemistry)</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://en.wikipedia.org/wiki/Chirality_(chemistry)&gt;https://en.wikipedia.org/wiki/Chirality_(chemistry)&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212778&gt;https://news.ycombinator.com/item?id=37212778&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Scriptable: Automate iOS Using JavaScript</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>https://scriptable.app/</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://scriptable.app/&gt;https://scriptable.app/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212776&gt;https://news.ycombinator.com/item?id=37212776&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Chess as a case study in hidden capabilities in ChatGPT</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>https://www.lesswrong.com/posts/F6vH6fr8ngo7csDdf/chess-as-a-case-study-in-hidden-capabilities-in-chatgpt</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.lesswrong.com/posts/F6vH6fr8ngo7csDdf/chess-as-a-case-study-in-hidden-capabilities-in-chatgpt&gt;https://www.lesswrong.com/posts/F6vH6fr8ngo7csDdf/chess-as-a-case-study-in-hidden-capabilities-in-chatgpt&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212774&gt;https://news.ycombinator.com/item?id=37212774&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Fuzzing for CPS Mutation Testing</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/abs/2308.07949</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://arxiv.org/abs/2308.07949&gt;https://arxiv.org/abs/2308.07949&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212771&gt;https://news.ycombinator.com/item?id=37212771&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Page.js: Tiny ~1200 byte Express-inspired client-side router</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>https://visionmedia.github.io/page.js/</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://visionmedia.github.io/page.js/&gt;https://visionmedia.github.io/page.js/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212770&gt;https://news.ycombinator.com/item?id=37212770&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Made a Tool to Help Calculate LLM Hosting Costs. LLM Cost Calculator Tool</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>https://llmcalculator.woyera.com/</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://llmcalculator.woyera.com/&gt;https://llmcalculator.woyera.com/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212752&gt;https://news.ycombinator.com/item?id=37212752&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Ask HN: Feeling disillusioned. Am I overly moralizing Tech?</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>https://news.ycombinator.com/item?id=37212733</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Tech Twitter is ablaze with hype around a new crypto app that lets you monetize relationships. Much of the excitement by builders &amp; VCs explicitly hand-waves away the obvious and self-admitted ponzinomics for the sake of social experimentation.&lt;p&gt;Watching this play out has peaked my long emerging disillusionment with Tech. When billions are poured into subsidizing the engineering of addiction under the guise of growth, when VR is being pushed as a way to unironically help us connect more immersively, when the crypto intelligentsia continues to wantonly deploy financial mechanisms that almost universally enrich insiders under the guise of economic liberation, and everyone seems obsessed with joining the club at all costs… how are you meant to remain hopeful for tech’s societal impact?&lt;p&gt;Or am I just overly moralizing this?&lt;/p&gt;
-&lt;hr /&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212733&gt;https://news.ycombinator.com/item?id=37212733&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>OpenVoiceOS: Open-source voice AI platform</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>https://openvoiceos.org/</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://openvoiceos.org/&gt;https://openvoiceos.org/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212730&gt;https://news.ycombinator.com/item?id=37212730&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Soylent Green</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Soylent_Green</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://en.wikipedia.org/wiki/Soylent_Green&gt;https://en.wikipedia.org/wiki/Soylent_Green&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212721&gt;https://news.ycombinator.com/item?id=37212721&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 1&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Dentistry, X-rays and Morecambe and Wise (2018)</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>https://www.qmul.ac.uk/media/news/2018/smd/dentistry-x-rays-and-morecambe-and-wise.html</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.qmul.ac.uk/media/news/2018/smd/dentistry-x-rays-and-morecambe-and-wise.html&gt;https://www.qmul.ac.uk/media/news/2018/smd/dentistry-x-rays-and-morecambe-and-wise.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212716&gt;https://news.ycombinator.com/item?id=37212716&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>Lyrebird the Linux voice changer now supports PipeWire</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>https://github.com/lyrebird-voice-changer/lyrebird/releases/tag/v1.2.0</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://github.com/lyrebird-voice-changer/lyrebird/releases/tag/v1.2.0&gt;https://github.com/lyrebird-voice-changer/lyrebird/releases/tag/v1.2.0&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212711&gt;https://news.ycombinator.com/item?id=37212711&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 2&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>Trying to be human, and other mistakes</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>https://jakeseliger.com/2023/08/19/trying-to-be-human-and-other-mistakes/</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://jakeseliger.com/2023/08/19/trying-to-be-human-and-other-mistakes/&gt;https://jakeseliger.com/2023/08/19/trying-to-be-human-and-other-mistakes/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212704&gt;https://news.ycombinator.com/item?id=37212704&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>Painboard: Automatically summarize, group and sort customer feedback</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>https://usepainboard.com/</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://usepainboard.com/&gt;https://usepainboard.com/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212693&gt;https://news.ycombinator.com/item?id=37212693&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>The Impossible “Literacy” Test Louisiana Gave Black Voters in the 1960s (2013)</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>https://slate.com/human-interest/2013/06/voting-rights-and-the-supreme-court-the-impossible-literacy-test-louisiana-used-to-give-black-voters.html</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://slate.com/human-interest/2013/06/voting-rights-and-the-supreme-court-the-impossible-literacy-test-louisiana-used-to-give-black-voters.html&gt;https://slate.com/human-interest/2013/06/voting-rights-and-the-supreme-court-the-impossible-literacy-test-louisiana-used-to-give-black-voters.html&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212679&gt;https://news.ycombinator.com/item?id=37212679&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Hacker News</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Fearlessly Handling BigKeys with Dragonfly</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>https://www.dragonflydb.io/blog/fearlessly-handling-bigkeys-with-dragonfly</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Article URL: &lt;a href=https://www.dragonflydb.io/blog/fearlessly-handling-bigkeys-with-dragonfly&gt;https://www.dragonflydb.io/blog/fearlessly-handling-bigkeys-with-dragonfly&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Comments URL: &lt;a href=https://news.ycombinator.com/item?id=37212677&gt;https://news.ycombinator.com/item?id=37212677&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Points: 1&lt;/p&gt;
-&lt;p&gt;# Comments: 0&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
